--- a/003nichangsheng/丹药计算.xlsx
+++ b/003nichangsheng/丹药计算.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wym\006product\001game\gameInfo\003nichangsheng\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D78C1D-E738-4A33-8C47-08B8DBC88B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="herb" sheetId="1" r:id="rId1"/>
     <sheet name="Dan" sheetId="2" r:id="rId2"/>
     <sheet name="simple" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="161">
   <si>
     <t>序号</t>
   </si>
@@ -483,10 +477,16 @@
     <t>易经丹</t>
   </si>
   <si>
+    <t>金刚铁骨丹</t>
+  </si>
+  <si>
     <t>神行丹</t>
   </si>
   <si>
-    <t>金刚铁骨丹</t>
+    <t>森芒丹</t>
+  </si>
+  <si>
+    <t>浩森丹</t>
   </si>
   <si>
     <t>五品</t>
@@ -504,11 +504,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,14 +527,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,12 +680,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -567,9 +894,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -583,21 +1152,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -855,26 +1468,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="11.1083333333333" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +1507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -916,7 +1529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -938,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -952,15 +1565,15 @@
         <v>3</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E10" si="0">D4*2</f>
+        <f t="shared" ref="E4:E14" si="0">D4*2</f>
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F10" si="1">E4*1.5</f>
+        <f t="shared" ref="F4:F14" si="1">E4*1.5</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -982,7 +1595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1004,7 +1617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1026,7 +1639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1048,7 +1661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1070,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1092,7 +1705,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1106,15 +1719,15 @@
         <v>12</v>
       </c>
       <c r="E11" s="2">
-        <f>D11*2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F11" s="2">
-        <f>E11*1.5</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1128,15 +1741,15 @@
         <v>12</v>
       </c>
       <c r="E12" s="2">
-        <f>D12*2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F12" s="2">
-        <f>E12*1.5</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1150,15 +1763,15 @@
         <v>12</v>
       </c>
       <c r="E13" s="2">
-        <f>D13*2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F13" s="2">
-        <f>E13*1.5</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1172,15 +1785,15 @@
         <v>12</v>
       </c>
       <c r="E14" s="2">
-        <f>D14*2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F14" s="2">
-        <f>E14*1.5</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1202,7 +1815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1224,7 +1837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1246,7 +1859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1268,7 +1881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1290,7 +1903,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1312,7 +1925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1334,7 +1947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1356,7 +1969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1378,7 +1991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1400,7 +2013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1422,7 +2035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1444,7 +2057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -1464,7 +2077,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1486,7 +2099,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1508,7 +2121,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1530,7 +2143,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1552,7 +2165,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -1574,7 +2187,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -1596,7 +2209,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -1610,15 +2223,15 @@
         <v>135</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E44" si="8">D34*2</f>
+        <f t="shared" ref="E34:E46" si="8">D34*2</f>
         <v>270</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" ref="F34:F44" si="9">E34*1.5</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F34:F46" si="9">E34*1.5</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1640,7 +2253,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1662,7 +2275,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -1684,7 +2297,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1706,7 +2319,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1728,7 +2341,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -1750,7 +2363,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1772,7 +2385,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -1794,7 +2407,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1816,7 +2429,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>34</v>
@@ -1836,7 +2449,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>34</v>
@@ -1848,15 +2461,15 @@
         <v>135</v>
       </c>
       <c r="E45" s="2">
-        <f>D45*2</f>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="F45" s="2">
-        <f>E45*1.5</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>34</v>
@@ -1868,15 +2481,15 @@
         <v>135</v>
       </c>
       <c r="E46" s="2">
-        <f>D46*2</f>
+        <f t="shared" si="8"/>
         <v>270</v>
       </c>
       <c r="F46" s="2">
-        <f>E46*1.5</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>34</v>
@@ -1896,7 +2509,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>34</v>
@@ -1916,7 +2529,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>34</v>
@@ -1936,7 +2549,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>34</v>
@@ -1956,7 +2569,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>34</v>
@@ -1976,7 +2589,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>34</v>
@@ -1996,7 +2609,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>60</v>
@@ -2016,7 +2629,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
         <v>60</v>
@@ -2028,15 +2641,15 @@
         <v>1440</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" ref="E54:E57" si="12">D54*2</f>
+        <f t="shared" ref="E54:E58" si="12">D54*2</f>
         <v>2880</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" ref="F54:F57" si="13">E54*1.5</f>
+        <f t="shared" ref="F54:F58" si="13">E54*1.5</f>
         <v>4320</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="2"/>
       <c r="B55" s="2" t="s">
         <v>60</v>
@@ -2056,7 +2669,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="2"/>
       <c r="B56" s="2" t="s">
         <v>60</v>
@@ -2076,7 +2689,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2"/>
       <c r="B57" s="2" t="s">
         <v>60</v>
@@ -2096,7 +2709,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>42</v>
       </c>
@@ -2110,15 +2723,15 @@
         <v>1440</v>
       </c>
       <c r="E58" s="2">
-        <f>D58*2</f>
+        <f t="shared" si="12"/>
         <v>2880</v>
       </c>
       <c r="F58" s="2">
-        <f>E58*1.5</f>
+        <f t="shared" si="13"/>
         <v>4320</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>43</v>
       </c>
@@ -2140,7 +2753,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>44</v>
       </c>
@@ -2162,7 +2775,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>45</v>
       </c>
@@ -2184,7 +2797,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>46</v>
       </c>
@@ -2206,7 +2819,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>47</v>
       </c>
@@ -2228,7 +2841,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>48</v>
       </c>
@@ -2250,7 +2863,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2258,7 +2871,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2266,7 +2879,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2274,7 +2887,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2282,7 +2895,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2290,7 +2903,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2298,7 +2911,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2307,37 +2920,38 @@
       <c r="F71" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C15">
-    <sortCondition descending="1" ref="B2"/>
+  <sortState ref="A2:C15">
+    <sortCondition ref="B2" descending="1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG91"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" customWidth="1"/>
-    <col min="27" max="29" width="13.88671875" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="12.5546875" customWidth="1"/>
-    <col min="33" max="33" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.2166666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.1083333333333" customWidth="1"/>
+    <col min="26" max="26" width="13.1083333333333" customWidth="1"/>
+    <col min="27" max="29" width="13.8833333333333" customWidth="1"/>
+    <col min="30" max="30" width="13.4416666666667" customWidth="1"/>
+    <col min="31" max="31" width="14.1083333333333" customWidth="1"/>
+    <col min="32" max="32" width="12.5583333333333" customWidth="1"/>
+    <col min="33" max="33" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2554,7 +3168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2664,14 +3278,14 @@
         <v>201.6</v>
       </c>
       <c r="AF3" s="2">
-        <f t="shared" ref="AF3:AF12" si="11">AD3*2</f>
+        <f t="shared" ref="AF3:AF13" si="11">AD3*2</f>
         <v>224</v>
       </c>
       <c r="AG3" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2790,7 +3404,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2899,7 +3513,7 @@
       </c>
       <c r="AE5" s="2">
         <f t="shared" si="10"/>
-        <v>151.20000000000002</v>
+        <v>151.2</v>
       </c>
       <c r="AF5" s="2">
         <f t="shared" si="11"/>
@@ -2909,7 +3523,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3028,7 +3642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3147,7 +3761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3266,7 +3880,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3385,7 +3999,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3504,7 +4118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3623,7 +4237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3732,7 +4346,7 @@
       </c>
       <c r="AE12" s="2">
         <f t="shared" si="10"/>
-        <v>547.20000000000005</v>
+        <v>547.2</v>
       </c>
       <c r="AF12" s="2">
         <f t="shared" si="11"/>
@@ -3742,7 +4356,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3850,18 +4464,18 @@
         <v>71</v>
       </c>
       <c r="AE13" s="2">
-        <f>AD13*1.8</f>
+        <f t="shared" si="10"/>
         <v>127.8</v>
       </c>
       <c r="AF13" s="2">
-        <f>AD13*2</f>
+        <f t="shared" si="11"/>
         <v>142</v>
       </c>
       <c r="AG13" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3970,7 +4584,7 @@
       </c>
       <c r="AE14" s="2">
         <f t="shared" si="10"/>
-        <v>320.40000000000003</v>
+        <v>320.4</v>
       </c>
       <c r="AF14" s="2">
         <f t="shared" ref="AF14:AF23" si="12">AD14*2</f>
@@ -3980,7 +4594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4101,7 +4715,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4222,7 +4836,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4343,7 +4957,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4464,7 +5078,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4583,7 +5197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4704,7 +5318,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4823,7 +5437,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4942,7 +5556,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5061,7 +5675,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5180,7 +5794,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5299,7 +5913,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5418,7 +6032,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5537,7 +6151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5656,7 +6270,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5775,7 +6389,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5894,7 +6508,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6015,7 +6629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6134,7 +6748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6253,7 +6867,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6374,7 +6988,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6493,7 +7107,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6612,7 +7226,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6731,7 +7345,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6850,7 +7464,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6969,7 +7583,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7088,7 +7702,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7209,7 +7823,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7330,7 +7944,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7451,7 +8065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7572,7 +8186,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7693,7 +8307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7814,7 +8428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7933,7 +8547,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8054,7 +8668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8175,7 +8789,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8296,7 +8910,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8417,7 +9031,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8538,7 +9152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -8657,7 +9271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:33">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -8776,7 +9390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -8895,7 +9509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -9014,7 +9628,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -9133,7 +9747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -9252,7 +9866,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9263,48 +9877,48 @@
         <v>153</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="E59" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2">
         <f>VLOOKUP(D59,herb!$C$1:$F$71,3,FALSE)</f>
-        <v>2880</v>
+        <v>270</v>
       </c>
       <c r="G59" s="2">
         <f>VLOOKUP(D59,herb!$C$1:$F$71,4,FALSE)</f>
-        <v>4320</v>
+        <v>405</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="45"/>
-        <v>2880</v>
+        <f>E59*F59</f>
+        <v>1350</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="46"/>
-        <v>4320</v>
+        <f>E59*G59</f>
+        <v>2025</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K59" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L59" s="2">
         <f>IF(ISERROR(VLOOKUP(J59,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(J59,herb!$C$1:$F$71,3,FALSE))</f>
-        <v>270</v>
+        <v>2880</v>
       </c>
       <c r="M59" s="2">
         <f>IF(ISERROR(VLOOKUP(J59,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(J59,herb!$C$1:$F$71,4,FALSE))</f>
-        <v>405</v>
+        <v>4320</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="47"/>
-        <v>1350</v>
+        <f>K59*L59</f>
+        <v>5760</v>
       </c>
       <c r="O59" s="2">
-        <f t="shared" si="48"/>
-        <v>2025</v>
+        <f>K59*M59</f>
+        <v>8640</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" s="3">
@@ -9319,15 +9933,15 @@
         <v>0</v>
       </c>
       <c r="T59" s="2">
-        <f t="shared" si="49"/>
+        <f>R59*Q59</f>
         <v>0</v>
       </c>
       <c r="U59" s="2">
-        <f t="shared" si="50"/>
+        <f>Q59*S59</f>
         <v>0</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W59" s="2">
         <v>1</v>
@@ -9341,37 +9955,37 @@
         <v>405</v>
       </c>
       <c r="Z59" s="2">
-        <f t="shared" si="51"/>
+        <f>W59*X59</f>
         <v>270</v>
       </c>
       <c r="AA59" s="2">
-        <f t="shared" si="52"/>
+        <f>W59*Y59</f>
         <v>405</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="53"/>
-        <v>4500</v>
+        <f>H59+N59+T59+Z59</f>
+        <v>7380</v>
       </c>
       <c r="AC59" s="2">
-        <f t="shared" si="54"/>
-        <v>6750</v>
+        <f>I59+O59+U59+AA59</f>
+        <v>11070</v>
       </c>
       <c r="AD59" s="2">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="AE59" s="2">
-        <f t="shared" si="10"/>
-        <v>4500</v>
+        <f>AD59*1.8</f>
+        <v>9000</v>
       </c>
       <c r="AF59" s="2">
-        <f t="shared" si="55"/>
-        <v>5000</v>
+        <f>AD59*2</f>
+        <v>10000</v>
       </c>
       <c r="AG59" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9382,48 +9996,48 @@
         <v>154</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E60" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2">
         <f>VLOOKUP(D60,herb!$C$1:$F$71,3,FALSE)</f>
-        <v>270</v>
+        <v>2880</v>
       </c>
       <c r="G60" s="2">
         <f>VLOOKUP(D60,herb!$C$1:$F$71,4,FALSE)</f>
-        <v>405</v>
+        <v>4320</v>
       </c>
       <c r="H60" s="2">
-        <f t="shared" si="45"/>
-        <v>1350</v>
+        <f>E60*F60</f>
+        <v>2880</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="46"/>
-        <v>2025</v>
+        <f>E60*G60</f>
+        <v>4320</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K60" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L60" s="2">
         <f>IF(ISERROR(VLOOKUP(J60,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(J60,herb!$C$1:$F$71,3,FALSE))</f>
-        <v>2880</v>
+        <v>270</v>
       </c>
       <c r="M60" s="2">
         <f>IF(ISERROR(VLOOKUP(J60,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(J60,herb!$C$1:$F$71,4,FALSE))</f>
-        <v>4320</v>
+        <v>405</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="47"/>
-        <v>5760</v>
+        <f>K60*L60</f>
+        <v>1350</v>
       </c>
       <c r="O60" s="2">
-        <f t="shared" si="48"/>
-        <v>8640</v>
+        <f>K60*M60</f>
+        <v>2025</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" s="3">
@@ -9438,15 +10052,15 @@
         <v>0</v>
       </c>
       <c r="T60" s="2">
-        <f t="shared" si="49"/>
+        <f>R60*Q60</f>
         <v>0</v>
       </c>
       <c r="U60" s="2">
-        <f t="shared" si="50"/>
+        <f>Q60*S60</f>
         <v>0</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W60" s="2">
         <v>1</v>
@@ -9460,226 +10074,382 @@
         <v>405</v>
       </c>
       <c r="Z60" s="2">
-        <f t="shared" si="51"/>
+        <f>W60*X60</f>
         <v>270</v>
       </c>
       <c r="AA60" s="2">
-        <f t="shared" si="52"/>
+        <f>W60*Y60</f>
         <v>405</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="53"/>
-        <v>7380</v>
+        <f>H60+N60+T60+Z60</f>
+        <v>4500</v>
       </c>
       <c r="AC60" s="2">
-        <f t="shared" si="54"/>
-        <v>11070</v>
+        <f>I60+O60+U60+AA60</f>
+        <v>6750</v>
       </c>
       <c r="AD60" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AE60" s="2">
+        <f>AD60*1.8</f>
+        <v>4500</v>
+      </c>
+      <c r="AF60" s="2">
+        <f>AD60*2</f>
         <v>5000</v>
-      </c>
-      <c r="AE60" s="2">
-        <f t="shared" si="10"/>
-        <v>9000</v>
-      </c>
-      <c r="AF60" s="2">
-        <f t="shared" si="55"/>
-        <v>10000</v>
       </c>
       <c r="AG60" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="D61" s="2" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="E61" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2">
         <f>VLOOKUP(D61,herb!$C$1:$F$71,3,FALSE)</f>
-        <v>2880</v>
+        <v>270</v>
       </c>
       <c r="G61" s="2">
         <f>VLOOKUP(D61,herb!$C$1:$F$71,4,FALSE)</f>
-        <v>4320</v>
+        <v>405</v>
       </c>
       <c r="H61" s="2">
-        <f t="shared" si="45"/>
-        <v>8640</v>
+        <f>E61*F61</f>
+        <v>1080</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="46"/>
-        <v>12960</v>
+        <f>E61*G61</f>
+        <v>1620</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="K61" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L61" s="2">
         <f>IF(ISERROR(VLOOKUP(J61,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(J61,herb!$C$1:$F$71,3,FALSE))</f>
-        <v>2880</v>
+        <v>270</v>
       </c>
       <c r="M61" s="2">
         <f>IF(ISERROR(VLOOKUP(J61,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(J61,herb!$C$1:$F$71,4,FALSE))</f>
-        <v>4320</v>
+        <v>405</v>
       </c>
       <c r="N61" s="2">
-        <f t="shared" si="47"/>
-        <v>8640</v>
+        <f>K61*L61</f>
+        <v>540</v>
       </c>
       <c r="O61" s="2">
-        <f t="shared" si="48"/>
-        <v>12960</v>
-      </c>
-      <c r="P61" s="2"/>
+        <f>K61*M61</f>
+        <v>810</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2">
         <f>IF(ISERROR(VLOOKUP(P61,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(P61,herb!$C$1:$F$71,3,FALSE))</f>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="S61" s="2">
         <f>IF(ISERROR(VLOOKUP(P61,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(P61,herb!$C$1:$F$71,4,FALSE))</f>
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="T61" s="2">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f>R61*Q61</f>
+        <v>270</v>
       </c>
       <c r="U61" s="2">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f>Q61*S61</f>
+        <v>405</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="W61" s="2">
         <v>1</v>
       </c>
       <c r="X61" s="2">
         <f>IF(ISERROR(VLOOKUP(V61,herb!$C$1:$F$70,3,FALSE)),0,VLOOKUP(V61,herb!$C$1:$F$70,3,FALSE))</f>
-        <v>2880</v>
+        <v>24</v>
       </c>
       <c r="Y61" s="2">
         <f>IF(ISERROR(VLOOKUP(V61,herb!$C$1:$F$70,4,FALSE)),0,VLOOKUP(V61,herb!$C$1:$F$70,4,FALSE))</f>
-        <v>4320</v>
+        <v>36</v>
       </c>
       <c r="Z61" s="2">
-        <f t="shared" si="51"/>
-        <v>2880</v>
+        <f>W61*X61</f>
+        <v>24</v>
       </c>
       <c r="AA61" s="2">
-        <f t="shared" si="52"/>
-        <v>4320</v>
+        <f>W61*Y61</f>
+        <v>36</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="53"/>
-        <v>20160</v>
+        <f>H61+N61+T61+Z61</f>
+        <v>1914</v>
       </c>
       <c r="AC61" s="2">
-        <f t="shared" si="54"/>
-        <v>30240</v>
-      </c>
-      <c r="AD61" s="2">
-        <v>13125</v>
-      </c>
-      <c r="AE61" s="2">
-        <f t="shared" si="10"/>
-        <v>23625</v>
-      </c>
-      <c r="AF61" s="2">
-        <f t="shared" si="55"/>
-        <v>26250</v>
-      </c>
+        <f>I61+O61+U61+AA61</f>
+        <v>2871</v>
+      </c>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
       <c r="AG61" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
-      <c r="AC62" s="2"/>
+      <c r="D62" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="2">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2">
+        <f>VLOOKUP(D62,herb!$C$1:$F$71,3,FALSE)</f>
+        <v>270</v>
+      </c>
+      <c r="G62" s="2">
+        <f>VLOOKUP(D62,herb!$C$1:$F$71,4,FALSE)</f>
+        <v>405</v>
+      </c>
+      <c r="H62" s="2">
+        <f>E62*F62</f>
+        <v>1080</v>
+      </c>
+      <c r="I62" s="2">
+        <f>E62*G62</f>
+        <v>1620</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K62" s="2">
+        <v>2</v>
+      </c>
+      <c r="L62" s="2">
+        <f>IF(ISERROR(VLOOKUP(J62,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(J62,herb!$C$1:$F$71,3,FALSE))</f>
+        <v>270</v>
+      </c>
+      <c r="M62" s="2">
+        <f>IF(ISERROR(VLOOKUP(J62,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(J62,herb!$C$1:$F$71,4,FALSE))</f>
+        <v>405</v>
+      </c>
+      <c r="N62" s="2">
+        <f>K62*L62</f>
+        <v>540</v>
+      </c>
+      <c r="O62" s="2">
+        <f>K62*M62</f>
+        <v>810</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2">
+        <f>IF(ISERROR(VLOOKUP(P62,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(P62,herb!$C$1:$F$71,3,FALSE))</f>
+        <v>270</v>
+      </c>
+      <c r="S62" s="2">
+        <f>IF(ISERROR(VLOOKUP(P62,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(P62,herb!$C$1:$F$71,4,FALSE))</f>
+        <v>405</v>
+      </c>
+      <c r="T62" s="2">
+        <f>R62*Q62</f>
+        <v>270</v>
+      </c>
+      <c r="U62" s="2">
+        <f>Q62*S62</f>
+        <v>405</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W62" s="2">
+        <v>1</v>
+      </c>
+      <c r="X62" s="2">
+        <f>IF(ISERROR(VLOOKUP(V62,herb!$C$1:$F$70,3,FALSE)),0,VLOOKUP(V62,herb!$C$1:$F$70,3,FALSE))</f>
+        <v>24</v>
+      </c>
+      <c r="Y62" s="2">
+        <f>IF(ISERROR(VLOOKUP(V62,herb!$C$1:$F$70,4,FALSE)),0,VLOOKUP(V62,herb!$C$1:$F$70,4,FALSE))</f>
+        <v>36</v>
+      </c>
+      <c r="Z62" s="2">
+        <f>W62*X62</f>
+        <v>24</v>
+      </c>
+      <c r="AA62" s="2">
+        <f>W62*Y62</f>
+        <v>36</v>
+      </c>
+      <c r="AB62" s="2">
+        <f>H62+N62+T62+Z62</f>
+        <v>1914</v>
+      </c>
+      <c r="AC62" s="2">
+        <f>I62+O62+U62+AA62</f>
+        <v>2871</v>
+      </c>
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="2"/>
-    </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="AG62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="2">
+        <f>VLOOKUP(D63,herb!$C$1:$F$71,3,FALSE)</f>
+        <v>2880</v>
+      </c>
+      <c r="G63" s="2">
+        <f>VLOOKUP(D63,herb!$C$1:$F$71,4,FALSE)</f>
+        <v>4320</v>
+      </c>
+      <c r="H63" s="2">
+        <f>E63*F63</f>
+        <v>8640</v>
+      </c>
+      <c r="I63" s="2">
+        <f>E63*G63</f>
+        <v>12960</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K63" s="2">
+        <v>3</v>
+      </c>
+      <c r="L63" s="2">
+        <f>IF(ISERROR(VLOOKUP(J63,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(J63,herb!$C$1:$F$71,3,FALSE))</f>
+        <v>2880</v>
+      </c>
+      <c r="M63" s="2">
+        <f>IF(ISERROR(VLOOKUP(J63,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(J63,herb!$C$1:$F$71,4,FALSE))</f>
+        <v>4320</v>
+      </c>
+      <c r="N63" s="2">
+        <f>K63*L63</f>
+        <v>8640</v>
+      </c>
+      <c r="O63" s="2">
+        <f>K63*M63</f>
+        <v>12960</v>
+      </c>
       <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-      <c r="AB63" s="2"/>
-      <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="2"/>
-      <c r="AG63" s="2"/>
-    </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2">
+        <f>IF(ISERROR(VLOOKUP(P63,herb!$C$1:$F$71,3,FALSE)),0,VLOOKUP(P63,herb!$C$1:$F$71,3,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <f>IF(ISERROR(VLOOKUP(P63,herb!$C$1:$F$71,4,FALSE)),0,VLOOKUP(P63,herb!$C$1:$F$71,4,FALSE))</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <f>R63*Q63</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="2">
+        <f>Q63*S63</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W63" s="2">
+        <v>1</v>
+      </c>
+      <c r="X63" s="2">
+        <f>IF(ISERROR(VLOOKUP(V63,herb!$C$1:$F$70,3,FALSE)),0,VLOOKUP(V63,herb!$C$1:$F$70,3,FALSE))</f>
+        <v>2880</v>
+      </c>
+      <c r="Y63" s="2">
+        <f>IF(ISERROR(VLOOKUP(V63,herb!$C$1:$F$70,4,FALSE)),0,VLOOKUP(V63,herb!$C$1:$F$70,4,FALSE))</f>
+        <v>4320</v>
+      </c>
+      <c r="Z63" s="2">
+        <f>W63*X63</f>
+        <v>2880</v>
+      </c>
+      <c r="AA63" s="2">
+        <f>W63*Y63</f>
+        <v>4320</v>
+      </c>
+      <c r="AB63" s="2">
+        <f>H63+N63+T63+Z63</f>
+        <v>20160</v>
+      </c>
+      <c r="AC63" s="2">
+        <f>I63+O63+U63+AA63</f>
+        <v>30240</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>13125</v>
+      </c>
+      <c r="AE63" s="2">
+        <f>AD63*1.8</f>
+        <v>23625</v>
+      </c>
+      <c r="AF63" s="2">
+        <f>AD63*2</f>
+        <v>26250</v>
+      </c>
+      <c r="AG63" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -9696,7 +10466,7 @@
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="Q64" s="3"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -9714,7 +10484,7 @@
       <c r="AF64" s="2"/>
       <c r="AG64" s="2"/>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:33">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -9749,7 +10519,7 @@
       <c r="AF65" s="2"/>
       <c r="AG65" s="2"/>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:33">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -9784,7 +10554,7 @@
       <c r="AF66" s="2"/>
       <c r="AG66" s="2"/>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:33">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -9819,7 +10589,7 @@
       <c r="AF67" s="2"/>
       <c r="AG67" s="2"/>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:33">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -9854,7 +10624,7 @@
       <c r="AF68" s="2"/>
       <c r="AG68" s="2"/>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:33">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -9889,7 +10659,7 @@
       <c r="AF69" s="2"/>
       <c r="AG69" s="2"/>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -9924,7 +10694,7 @@
       <c r="AF70" s="2"/>
       <c r="AG70" s="2"/>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:33">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -9959,7 +10729,7 @@
       <c r="AF71" s="2"/>
       <c r="AG71" s="2"/>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:33">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -9994,7 +10764,7 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:33">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -10029,7 +10799,7 @@
       <c r="AF73" s="2"/>
       <c r="AG73" s="2"/>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -10064,7 +10834,7 @@
       <c r="AF74" s="2"/>
       <c r="AG74" s="2"/>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:33">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -10099,7 +10869,7 @@
       <c r="AF75" s="2"/>
       <c r="AG75" s="2"/>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:33">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -10134,7 +10904,7 @@
       <c r="AF76" s="2"/>
       <c r="AG76" s="2"/>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:33">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -10169,7 +10939,7 @@
       <c r="AF77" s="2"/>
       <c r="AG77" s="2"/>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:33">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -10204,7 +10974,7 @@
       <c r="AF78" s="2"/>
       <c r="AG78" s="2"/>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:33">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -10239,7 +11009,7 @@
       <c r="AF79" s="2"/>
       <c r="AG79" s="2"/>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:33">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -10274,7 +11044,7 @@
       <c r="AF80" s="2"/>
       <c r="AG80" s="2"/>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:33">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -10309,7 +11079,7 @@
       <c r="AF81" s="2"/>
       <c r="AG81" s="2"/>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:33">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -10344,7 +11114,7 @@
       <c r="AF82" s="2"/>
       <c r="AG82" s="2"/>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:33">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -10379,7 +11149,7 @@
       <c r="AF83" s="2"/>
       <c r="AG83" s="2"/>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:33">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -10414,7 +11184,7 @@
       <c r="AF84" s="2"/>
       <c r="AG84" s="2"/>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:33">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -10449,7 +11219,7 @@
       <c r="AF85" s="2"/>
       <c r="AG85" s="2"/>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:33">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -10484,7 +11254,7 @@
       <c r="AF86" s="2"/>
       <c r="AG86" s="2"/>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -10519,7 +11289,7 @@
       <c r="AF87" s="2"/>
       <c r="AG87" s="2"/>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -10554,2561 +11324,2747 @@
       <c r="AF88" s="2"/>
       <c r="AG88" s="2"/>
     </row>
+    <row r="89" spans="1:33">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+    </row>
+    <row r="90" spans="1:33">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+    </row>
+    <row r="91" spans="1:33">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF59">
-    <sortCondition ref="A21"/>
+  <sortState ref="A2:AG91">
+    <sortCondition ref="A51"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AE78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="15" width="9" customWidth="1"/>
-    <col min="18" max="21" width="9" customWidth="1"/>
-    <col min="24" max="31" width="9" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="15.44140625" customWidth="1"/>
-    <col min="35" max="35" width="16.21875" customWidth="1"/>
+    <col min="2" max="3" width="11.775" customWidth="1"/>
+    <col min="5" max="5" width="16.775" customWidth="1"/>
+    <col min="6" max="6" width="14.6666666666667" customWidth="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10.775" customWidth="1"/>
+    <col min="11" max="11" width="18.1083333333333" customWidth="1"/>
+    <col min="12" max="12" width="18.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="18.4416666666667" customWidth="1"/>
+    <col min="14" max="16" width="9" customWidth="1"/>
+    <col min="19" max="22" width="9" customWidth="1"/>
+    <col min="25" max="32" width="9" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.4416666666667" customWidth="1"/>
+    <col min="36" max="36" width="16.2166666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>159</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C2" s="2">
-        <f>IF(ISERROR(VLOOKUP(B2,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B2,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2">
+        <f>IF(ISERROR(VLOOKUP(C2,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C2,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>20160</v>
       </c>
-      <c r="D2" s="2">
-        <f>IF(ISERROR(VLOOKUP(B2,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B2,Dan!$C$1:$AF$71,29,FALSE)) - C2</f>
+      <c r="E2" s="2">
+        <f>IF(ISERROR(VLOOKUP(C2,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C2,Dan!$C$1:$AF$74,29,FALSE))-D2</f>
         <v>3465</v>
       </c>
-      <c r="E2" s="2">
-        <f>IF(ISERROR(VLOOKUP(B2,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B2,Dan!$C$1:$AF$71,30,FALSE)) - C2</f>
+      <c r="F2" s="2">
+        <f>IF(ISERROR(VLOOKUP(C2,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C2,Dan!$C$1:$AF$74,30,FALSE))-D2</f>
         <v>6090</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="2">
-        <f>IF(ISERROR(VLOOKUP(I2,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I2,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K2" s="2">
+        <f>IF(ISERROR(VLOOKUP(J2,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J2,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>180</v>
       </c>
-      <c r="K2" s="2">
-        <f>IF(ISERROR(VLOOKUP(I2,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I2,Dan!$C$1:$AF$71,29,FALSE)) - J2</f>
-        <v>270</v>
-      </c>
       <c r="L2" s="2">
-        <f>IF(ISERROR(VLOOKUP(I2,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I2,Dan!$C$1:$AF$71,30,FALSE)) - J2</f>
+        <f>IF(ISERROR(VLOOKUP(J2,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J2,Dan!$C$1:$AF$74,29,FALSE))-K2</f>
+        <v>270</v>
+      </c>
+      <c r="M2" s="2">
+        <f>IF(ISERROR(VLOOKUP(J2,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J2,Dan!$C$1:$AF$74,30,FALSE))-K2</f>
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>59</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="2">
-        <f>IF(ISERROR(VLOOKUP(B3,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B3,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="2">
+        <f>IF(ISERROR(VLOOKUP(C3,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C3,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>7380</v>
       </c>
-      <c r="D3" s="2">
-        <f>IF(ISERROR(VLOOKUP(B3,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B3,Dan!$C$1:$AF$71,29,FALSE)) - C3</f>
+      <c r="E3" s="2">
+        <f>IF(ISERROR(VLOOKUP(C3,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C3,Dan!$C$1:$AF$74,29,FALSE))-D3</f>
         <v>1620</v>
       </c>
-      <c r="E3" s="2">
-        <f>IF(ISERROR(VLOOKUP(B3,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B3,Dan!$C$1:$AF$71,30,FALSE)) - C3</f>
+      <c r="F3" s="2">
+        <f>IF(ISERROR(VLOOKUP(C3,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C3,Dan!$C$1:$AF$74,30,FALSE))-D3</f>
         <v>2620</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>56</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="2">
-        <f>IF(ISERROR(VLOOKUP(I3,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I3,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K3" s="2">
+        <f>IF(ISERROR(VLOOKUP(J3,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J3,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>423</v>
       </c>
-      <c r="K3" s="2">
-        <f>IF(ISERROR(VLOOKUP(I3,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I3,Dan!$C$1:$AF$71,29,FALSE)) - J3</f>
+      <c r="L3" s="2">
+        <f>IF(ISERROR(VLOOKUP(J3,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J3,Dan!$C$1:$AF$74,29,FALSE))-K3</f>
         <v>207</v>
       </c>
-      <c r="L3" s="2">
-        <f>IF(ISERROR(VLOOKUP(I3,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I3,Dan!$C$1:$AF$71,30,FALSE)) - J3</f>
+      <c r="M3" s="2">
+        <f>IF(ISERROR(VLOOKUP(J3,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J3,Dan!$C$1:$AF$74,30,FALSE))-K3</f>
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="2">
-        <f>IF(ISERROR(VLOOKUP(B4,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B4,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D4" s="2">
+        <f>IF(ISERROR(VLOOKUP(C4,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C4,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>17280</v>
       </c>
-      <c r="D4" s="2">
-        <f>IF(ISERROR(VLOOKUP(B4,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B4,Dan!$C$1:$AF$71,29,FALSE)) - C4</f>
+      <c r="E4" s="2">
+        <f>IF(ISERROR(VLOOKUP(C4,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C4,Dan!$C$1:$AF$74,29,FALSE))-D4</f>
         <v>540</v>
       </c>
-      <c r="E4" s="2">
-        <f>IF(ISERROR(VLOOKUP(B4,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B4,Dan!$C$1:$AF$71,30,FALSE)) - C4</f>
+      <c r="F4" s="2">
+        <f>IF(ISERROR(VLOOKUP(C4,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C4,Dan!$C$1:$AF$74,30,FALSE))-D4</f>
         <v>2520</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>27</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="2">
-        <f>IF(ISERROR(VLOOKUP(I4,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I4,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K4" s="2">
+        <f>IF(ISERROR(VLOOKUP(J4,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J4,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>252</v>
       </c>
-      <c r="K4" s="2">
-        <f>IF(ISERROR(VLOOKUP(I4,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I4,Dan!$C$1:$AF$71,29,FALSE)) - J4</f>
-        <v>84.600000000000023</v>
-      </c>
       <c r="L4" s="2">
-        <f>IF(ISERROR(VLOOKUP(I4,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I4,Dan!$C$1:$AF$71,30,FALSE)) - J4</f>
+        <f>IF(ISERROR(VLOOKUP(J4,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J4,Dan!$C$1:$AF$74,29,FALSE))-K4</f>
+        <v>84.6</v>
+      </c>
+      <c r="M4" s="2">
+        <f>IF(ISERROR(VLOOKUP(J4,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J4,Dan!$C$1:$AF$74,30,FALSE))-K4</f>
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>35</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="2">
-        <f>IF(ISERROR(VLOOKUP(B5,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B5,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D5" s="2">
+        <f>IF(ISERROR(VLOOKUP(C5,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C5,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>5040</v>
       </c>
-      <c r="D5" s="2">
-        <f>IF(ISERROR(VLOOKUP(B5,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B5,Dan!$C$1:$AF$71,29,FALSE)) - C5</f>
+      <c r="E5" s="2">
+        <f>IF(ISERROR(VLOOKUP(C5,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C5,Dan!$C$1:$AF$74,29,FALSE))-D5</f>
         <v>585</v>
       </c>
-      <c r="E5" s="2">
-        <f>IF(ISERROR(VLOOKUP(B5,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B5,Dan!$C$1:$AF$71,30,FALSE)) - C5</f>
+      <c r="F5" s="2">
+        <f>IF(ISERROR(VLOOKUP(C5,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C5,Dan!$C$1:$AF$74,30,FALSE))-D5</f>
         <v>1210</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="2">
-        <f>IF(ISERROR(VLOOKUP(I5,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I5,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K5" s="2">
+        <f>IF(ISERROR(VLOOKUP(J5,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J5,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="K5" s="2">
-        <f>IF(ISERROR(VLOOKUP(I5,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I5,Dan!$C$1:$AF$71,29,FALSE)) - J5</f>
+      <c r="L5" s="2">
+        <f>IF(ISERROR(VLOOKUP(J5,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J5,Dan!$C$1:$AF$74,29,FALSE))-K5</f>
         <v>63</v>
       </c>
-      <c r="L5" s="2">
-        <f>IF(ISERROR(VLOOKUP(I5,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I5,Dan!$C$1:$AF$71,30,FALSE)) - J5</f>
+      <c r="M5" s="2">
+        <f>IF(ISERROR(VLOOKUP(J5,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J5,Dan!$C$1:$AF$74,30,FALSE))-K5</f>
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="2">
-        <f>IF(ISERROR(VLOOKUP(B6,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B6,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D6" s="2">
+        <f>IF(ISERROR(VLOOKUP(C6,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C6,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>5040</v>
       </c>
-      <c r="D6" s="2">
-        <f>IF(ISERROR(VLOOKUP(B6,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B6,Dan!$C$1:$AF$71,29,FALSE)) - C6</f>
+      <c r="E6" s="2">
+        <f>IF(ISERROR(VLOOKUP(C6,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C6,Dan!$C$1:$AF$74,29,FALSE))-D6</f>
         <v>306</v>
       </c>
-      <c r="E6" s="2">
-        <f>IF(ISERROR(VLOOKUP(B6,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B6,Dan!$C$1:$AF$71,30,FALSE)) - C6</f>
+      <c r="F6" s="2">
+        <f>IF(ISERROR(VLOOKUP(C6,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C6,Dan!$C$1:$AF$74,30,FALSE))-D6</f>
         <v>900</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="2">
-        <f>IF(ISERROR(VLOOKUP(I6,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I6,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K6" s="2">
+        <f>IF(ISERROR(VLOOKUP(J6,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J6,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="K6" s="2">
-        <f>IF(ISERROR(VLOOKUP(I6,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I6,Dan!$C$1:$AF$71,29,FALSE)) - J6</f>
+      <c r="L6" s="2">
+        <f>IF(ISERROR(VLOOKUP(J6,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J6,Dan!$C$1:$AF$74,29,FALSE))-K6</f>
         <v>63</v>
       </c>
-      <c r="L6" s="2">
-        <f>IF(ISERROR(VLOOKUP(I6,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I6,Dan!$C$1:$AF$71,30,FALSE)) - J6</f>
+      <c r="M6" s="2">
+        <f>IF(ISERROR(VLOOKUP(J6,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J6,Dan!$C$1:$AF$74,30,FALSE))-K6</f>
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>33</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="2">
-        <f>IF(ISERROR(VLOOKUP(B7,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B7,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D7" s="2">
+        <f>IF(ISERROR(VLOOKUP(C7,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C7,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1620</v>
       </c>
-      <c r="D7" s="2">
-        <f>IF(ISERROR(VLOOKUP(B7,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B7,Dan!$C$1:$AF$71,29,FALSE)) - C7</f>
+      <c r="E7" s="2">
+        <f>IF(ISERROR(VLOOKUP(C7,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C7,Dan!$C$1:$AF$74,29,FALSE))-D7</f>
         <v>630</v>
       </c>
-      <c r="E7" s="2">
-        <f>IF(ISERROR(VLOOKUP(B7,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B7,Dan!$C$1:$AF$71,30,FALSE)) - C7</f>
+      <c r="F7" s="2">
+        <f>IF(ISERROR(VLOOKUP(C7,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C7,Dan!$C$1:$AF$74,30,FALSE))-D7</f>
         <v>880</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="2">
-        <f>IF(ISERROR(VLOOKUP(I7,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I7,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K7" s="2">
+        <f>IF(ISERROR(VLOOKUP(J7,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J7,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="K7" s="2">
-        <f>IF(ISERROR(VLOOKUP(I7,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I7,Dan!$C$1:$AF$71,29,FALSE)) - J7</f>
+      <c r="L7" s="2">
+        <f>IF(ISERROR(VLOOKUP(J7,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J7,Dan!$C$1:$AF$74,29,FALSE))-K7</f>
         <v>63</v>
       </c>
-      <c r="L7" s="2">
-        <f>IF(ISERROR(VLOOKUP(I7,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I7,Dan!$C$1:$AF$71,30,FALSE)) - J7</f>
+      <c r="M7" s="2">
+        <f>IF(ISERROR(VLOOKUP(J7,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J7,Dan!$C$1:$AF$74,30,FALSE))-K7</f>
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>53</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="2">
-        <f>IF(ISERROR(VLOOKUP(B8,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B8,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D8" s="2">
+        <f>IF(ISERROR(VLOOKUP(C8,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C8,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>2430</v>
       </c>
-      <c r="D8" s="2">
-        <f>IF(ISERROR(VLOOKUP(B8,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B8,Dan!$C$1:$AF$71,29,FALSE)) - C8</f>
+      <c r="E8" s="2">
+        <f>IF(ISERROR(VLOOKUP(C8,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C8,Dan!$C$1:$AF$74,29,FALSE))-D8</f>
         <v>495</v>
       </c>
-      <c r="E8" s="2">
-        <f>IF(ISERROR(VLOOKUP(B8,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B8,Dan!$C$1:$AF$71,30,FALSE)) - C8</f>
+      <c r="F8" s="2">
+        <f>IF(ISERROR(VLOOKUP(C8,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C8,Dan!$C$1:$AF$74,30,FALSE))-D8</f>
         <v>820</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J8" s="2">
-        <f>IF(ISERROR(VLOOKUP(I8,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I8,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K8" s="2">
+        <f>IF(ISERROR(VLOOKUP(J8,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J8,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="K8" s="2">
-        <f>IF(ISERROR(VLOOKUP(I8,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I8,Dan!$C$1:$AF$71,29,FALSE)) - J8</f>
+      <c r="L8" s="2">
+        <f>IF(ISERROR(VLOOKUP(J8,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J8,Dan!$C$1:$AF$74,29,FALSE))-K8</f>
         <v>63</v>
       </c>
-      <c r="L8" s="2">
-        <f>IF(ISERROR(VLOOKUP(I8,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I8,Dan!$C$1:$AF$71,30,FALSE)) - J8</f>
+      <c r="M8" s="2">
+        <f>IF(ISERROR(VLOOKUP(J8,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J8,Dan!$C$1:$AF$74,30,FALSE))-K8</f>
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="2">
-        <f>IF(ISERROR(VLOOKUP(B9,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B9,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D9" s="2">
+        <f>IF(ISERROR(VLOOKUP(C9,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C9,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>2430</v>
       </c>
-      <c r="D9" s="2">
-        <f>IF(ISERROR(VLOOKUP(B9,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B9,Dan!$C$1:$AF$71,29,FALSE)) - C9</f>
+      <c r="E9" s="2">
+        <f>IF(ISERROR(VLOOKUP(C9,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C9,Dan!$C$1:$AF$74,29,FALSE))-D9</f>
         <v>495</v>
       </c>
-      <c r="E9" s="2">
-        <f>IF(ISERROR(VLOOKUP(B9,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B9,Dan!$C$1:$AF$71,30,FALSE)) - C9</f>
+      <c r="F9" s="2">
+        <f>IF(ISERROR(VLOOKUP(C9,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C9,Dan!$C$1:$AF$74,30,FALSE))-D9</f>
         <v>820</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>28</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J9" s="2">
-        <f>IF(ISERROR(VLOOKUP(I9,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I9,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K9" s="2">
+        <f>IF(ISERROR(VLOOKUP(J9,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J9,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>252</v>
       </c>
-      <c r="K9" s="2">
-        <f>IF(ISERROR(VLOOKUP(I9,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I9,Dan!$C$1:$AF$71,29,FALSE)) - J9</f>
+      <c r="L9" s="2">
+        <f>IF(ISERROR(VLOOKUP(J9,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J9,Dan!$C$1:$AF$74,29,FALSE))-K9</f>
         <v>45</v>
       </c>
-      <c r="L9" s="2">
-        <f>IF(ISERROR(VLOOKUP(I9,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I9,Dan!$C$1:$AF$71,30,FALSE)) - J9</f>
+      <c r="M9" s="2">
+        <f>IF(ISERROR(VLOOKUP(J9,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J9,Dan!$C$1:$AF$74,30,FALSE))-K9</f>
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>55</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="2">
-        <f>IF(ISERROR(VLOOKUP(B10,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B10,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D10" s="2">
+        <f>IF(ISERROR(VLOOKUP(C10,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C10,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>2430</v>
       </c>
-      <c r="D10" s="2">
-        <f>IF(ISERROR(VLOOKUP(B10,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B10,Dan!$C$1:$AF$71,29,FALSE)) - C10</f>
+      <c r="E10" s="2">
+        <f>IF(ISERROR(VLOOKUP(C10,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C10,Dan!$C$1:$AF$74,29,FALSE))-D10</f>
         <v>495</v>
       </c>
-      <c r="E10" s="2">
-        <f>IF(ISERROR(VLOOKUP(B10,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B10,Dan!$C$1:$AF$71,30,FALSE)) - C10</f>
+      <c r="F10" s="2">
+        <f>IF(ISERROR(VLOOKUP(C10,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C10,Dan!$C$1:$AF$74,30,FALSE))-D10</f>
         <v>820</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>33</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="2">
-        <f>IF(ISERROR(VLOOKUP(I10,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I10,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K10" s="2">
+        <f>IF(ISERROR(VLOOKUP(J10,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J10,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2430</v>
       </c>
-      <c r="K10" s="2">
-        <f>IF(ISERROR(VLOOKUP(I10,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I10,Dan!$C$1:$AF$71,29,FALSE)) - J10</f>
+      <c r="L10" s="2">
+        <f>IF(ISERROR(VLOOKUP(J10,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J10,Dan!$C$1:$AF$74,29,FALSE))-K10</f>
         <v>-180</v>
       </c>
-      <c r="L10" s="2">
-        <f>IF(ISERROR(VLOOKUP(I10,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I10,Dan!$C$1:$AF$71,30,FALSE)) - J10</f>
+      <c r="M10" s="2">
+        <f>IF(ISERROR(VLOOKUP(J10,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J10,Dan!$C$1:$AF$74,30,FALSE))-K10</f>
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="2">
-        <f>IF(ISERROR(VLOOKUP(B11,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B11,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D11" s="2">
+        <f>IF(ISERROR(VLOOKUP(C11,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C11,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1890</v>
       </c>
-      <c r="D11" s="2">
-        <f>IF(ISERROR(VLOOKUP(B11,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B11,Dan!$C$1:$AF$71,29,FALSE)) - C11</f>
+      <c r="E11" s="2">
+        <f>IF(ISERROR(VLOOKUP(C11,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C11,Dan!$C$1:$AF$74,29,FALSE))-D11</f>
         <v>360</v>
       </c>
-      <c r="E11" s="2">
-        <f>IF(ISERROR(VLOOKUP(B11,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B11,Dan!$C$1:$AF$71,30,FALSE)) - C11</f>
+      <c r="F11" s="2">
+        <f>IF(ISERROR(VLOOKUP(C11,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C11,Dan!$C$1:$AF$74,30,FALSE))-D11</f>
         <v>610</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>8</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J11" s="2">
-        <f>IF(ISERROR(VLOOKUP(I11,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I11,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K11" s="2">
+        <f>IF(ISERROR(VLOOKUP(J11,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J11,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>117</v>
       </c>
-      <c r="K11" s="2">
-        <f>IF(ISERROR(VLOOKUP(I11,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I11,Dan!$C$1:$AF$71,29,FALSE)) - J11</f>
-        <v>50.400000000000006</v>
-      </c>
       <c r="L11" s="2">
-        <f>IF(ISERROR(VLOOKUP(I11,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I11,Dan!$C$1:$AF$71,30,FALSE)) - J11</f>
+        <f>IF(ISERROR(VLOOKUP(J11,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J11,Dan!$C$1:$AF$74,29,FALSE))-K11</f>
+        <v>50.4</v>
+      </c>
+      <c r="M11" s="2">
+        <f>IF(ISERROR(VLOOKUP(J11,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J11,Dan!$C$1:$AF$74,30,FALSE))-K11</f>
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="2">
         <v>58</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="2">
-        <f>IF(ISERROR(VLOOKUP(B12,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B12,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IF(ISERROR(VLOOKUP(C12,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C12,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>4500</v>
       </c>
-      <c r="D12" s="2">
-        <f>IF(ISERROR(VLOOKUP(B12,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B12,Dan!$C$1:$AF$71,29,FALSE)) - C12</f>
-        <v>0</v>
-      </c>
       <c r="E12" s="2">
-        <f>IF(ISERROR(VLOOKUP(B12,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B12,Dan!$C$1:$AF$71,30,FALSE)) - C12</f>
+        <f>IF(ISERROR(VLOOKUP(C12,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C12,Dan!$C$1:$AF$74,29,FALSE))-D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f>IF(ISERROR(VLOOKUP(C12,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C12,Dan!$C$1:$AF$74,30,FALSE))-D12</f>
         <v>500</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>13</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="J12" s="2">
-        <f>IF(ISERROR(VLOOKUP(I12,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I12,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K12" s="2">
+        <f>IF(ISERROR(VLOOKUP(J12,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J12,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>288</v>
       </c>
-      <c r="K12" s="2">
-        <f>IF(ISERROR(VLOOKUP(I12,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I12,Dan!$C$1:$AF$71,29,FALSE)) - J12</f>
-        <v>32.400000000000034</v>
-      </c>
       <c r="L12" s="2">
-        <f>IF(ISERROR(VLOOKUP(I12,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I12,Dan!$C$1:$AF$71,30,FALSE)) - J12</f>
+        <f>IF(ISERROR(VLOOKUP(J12,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J12,Dan!$C$1:$AF$74,29,FALSE))-K12</f>
+        <v>32.4</v>
+      </c>
+      <c r="M12" s="2">
+        <f>IF(ISERROR(VLOOKUP(J12,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J12,Dan!$C$1:$AF$74,30,FALSE))-K12</f>
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="2">
         <v>39</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="2">
-        <f>IF(ISERROR(VLOOKUP(B13,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B13,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D13" s="2">
+        <f>IF(ISERROR(VLOOKUP(C13,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C13,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1002</v>
       </c>
-      <c r="D13" s="2">
-        <f>IF(ISERROR(VLOOKUP(B13,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B13,Dan!$C$1:$AF$71,29,FALSE)) - C13</f>
+      <c r="E13" s="2">
+        <f>IF(ISERROR(VLOOKUP(C13,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C13,Dan!$C$1:$AF$74,29,FALSE))-D13</f>
         <v>348</v>
       </c>
-      <c r="E13" s="2">
-        <f>IF(ISERROR(VLOOKUP(B13,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B13,Dan!$C$1:$AF$71,30,FALSE)) - C13</f>
+      <c r="F13" s="2">
+        <f>IF(ISERROR(VLOOKUP(C13,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C13,Dan!$C$1:$AF$74,30,FALSE))-D13</f>
         <v>498</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>18</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="2">
-        <f>IF(ISERROR(VLOOKUP(I13,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I13,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K13" s="2">
+        <f>IF(ISERROR(VLOOKUP(J13,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J13,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K13" s="2">
-        <f>IF(ISERROR(VLOOKUP(I13,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I13,Dan!$C$1:$AF$71,29,FALSE)) - J13</f>
-        <v>36</v>
-      </c>
       <c r="L13" s="2">
-        <f>IF(ISERROR(VLOOKUP(I13,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I13,Dan!$C$1:$AF$71,30,FALSE)) - J13</f>
+        <f>IF(ISERROR(VLOOKUP(J13,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J13,Dan!$C$1:$AF$74,29,FALSE))-K13</f>
+        <v>36</v>
+      </c>
+      <c r="M13" s="2">
+        <f>IF(ISERROR(VLOOKUP(J13,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J13,Dan!$C$1:$AF$74,30,FALSE))-K13</f>
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="A14" s="2">
         <v>38</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="2">
-        <f>IF(ISERROR(VLOOKUP(B14,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B14,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D14" s="2">
+        <f>IF(ISERROR(VLOOKUP(C14,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C14,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>4524</v>
       </c>
-      <c r="D14" s="2">
-        <f>IF(ISERROR(VLOOKUP(B14,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B14,Dan!$C$1:$AF$71,29,FALSE)) - C14</f>
+      <c r="E14" s="2">
+        <f>IF(ISERROR(VLOOKUP(C14,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C14,Dan!$C$1:$AF$74,29,FALSE))-D14</f>
         <v>-24</v>
       </c>
-      <c r="E14" s="2">
-        <f>IF(ISERROR(VLOOKUP(B14,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B14,Dan!$C$1:$AF$71,30,FALSE)) - C14</f>
+      <c r="F14" s="2">
+        <f>IF(ISERROR(VLOOKUP(C14,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C14,Dan!$C$1:$AF$74,30,FALSE))-D14</f>
         <v>476</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J14" s="2">
-        <f>IF(ISERROR(VLOOKUP(I14,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I14,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K14" s="2">
+        <f>IF(ISERROR(VLOOKUP(J14,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J14,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K14" s="2">
-        <f>IF(ISERROR(VLOOKUP(I14,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I14,Dan!$C$1:$AF$71,29,FALSE)) - J14</f>
-        <v>36</v>
-      </c>
       <c r="L14" s="2">
-        <f>IF(ISERROR(VLOOKUP(I14,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I14,Dan!$C$1:$AF$71,30,FALSE)) - J14</f>
+        <f>IF(ISERROR(VLOOKUP(J14,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J14,Dan!$C$1:$AF$74,29,FALSE))-K14</f>
+        <v>36</v>
+      </c>
+      <c r="M14" s="2">
+        <f>IF(ISERROR(VLOOKUP(J14,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J14,Dan!$C$1:$AF$74,30,FALSE))-K14</f>
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="2">
         <v>34</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="2">
-        <f>IF(ISERROR(VLOOKUP(B15,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B15,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D15" s="2">
+        <f>IF(ISERROR(VLOOKUP(C15,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C15,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>3960</v>
       </c>
-      <c r="D15" s="2">
-        <f>IF(ISERROR(VLOOKUP(B15,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B15,Dan!$C$1:$AF$71,29,FALSE)) - C15</f>
-        <v>0</v>
-      </c>
       <c r="E15" s="2">
-        <f>IF(ISERROR(VLOOKUP(B15,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B15,Dan!$C$1:$AF$71,30,FALSE)) - C15</f>
+        <f>IF(ISERROR(VLOOKUP(C15,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C15,Dan!$C$1:$AF$74,29,FALSE))-D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f>IF(ISERROR(VLOOKUP(C15,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C15,Dan!$C$1:$AF$74,30,FALSE))-D15</f>
         <v>440</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>22</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J15" s="2">
-        <f>IF(ISERROR(VLOOKUP(I15,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I15,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K15" s="2">
+        <f>IF(ISERROR(VLOOKUP(J15,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J15,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K15" s="2">
-        <f>IF(ISERROR(VLOOKUP(I15,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I15,Dan!$C$1:$AF$71,29,FALSE)) - J15</f>
-        <v>36</v>
-      </c>
       <c r="L15" s="2">
-        <f>IF(ISERROR(VLOOKUP(I15,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I15,Dan!$C$1:$AF$71,30,FALSE)) - J15</f>
+        <f>IF(ISERROR(VLOOKUP(J15,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J15,Dan!$C$1:$AF$74,29,FALSE))-K15</f>
+        <v>36</v>
+      </c>
+      <c r="M15" s="2">
+        <f>IF(ISERROR(VLOOKUP(J15,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J15,Dan!$C$1:$AF$74,30,FALSE))-K15</f>
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="2">
         <v>56</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C16" s="2">
-        <f>IF(ISERROR(VLOOKUP(B16,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B16,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D16" s="2">
+        <f>IF(ISERROR(VLOOKUP(C16,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C16,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>282</v>
       </c>
-      <c r="D16" s="2">
-        <f>IF(ISERROR(VLOOKUP(B16,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B16,Dan!$C$1:$AF$71,29,FALSE)) - C16</f>
+      <c r="E16" s="2">
+        <f>IF(ISERROR(VLOOKUP(C16,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C16,Dan!$C$1:$AF$74,29,FALSE))-D16</f>
         <v>348</v>
       </c>
-      <c r="E16" s="2">
-        <f>IF(ISERROR(VLOOKUP(B16,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B16,Dan!$C$1:$AF$71,30,FALSE)) - C16</f>
+      <c r="F16" s="2">
+        <f>IF(ISERROR(VLOOKUP(C16,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C16,Dan!$C$1:$AF$74,30,FALSE))-D16</f>
         <v>418</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>23</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J16" s="2">
-        <f>IF(ISERROR(VLOOKUP(I16,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I16,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K16" s="2">
+        <f>IF(ISERROR(VLOOKUP(J16,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J16,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K16" s="2">
-        <f>IF(ISERROR(VLOOKUP(I16,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I16,Dan!$C$1:$AF$71,29,FALSE)) - J16</f>
-        <v>36</v>
-      </c>
       <c r="L16" s="2">
-        <f>IF(ISERROR(VLOOKUP(I16,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I16,Dan!$C$1:$AF$71,30,FALSE)) - J16</f>
+        <f>IF(ISERROR(VLOOKUP(J16,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J16,Dan!$C$1:$AF$74,29,FALSE))-K16</f>
+        <v>36</v>
+      </c>
+      <c r="M16" s="2">
+        <f>IF(ISERROR(VLOOKUP(J16,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J16,Dan!$C$1:$AF$74,30,FALSE))-K16</f>
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="2">
-        <f>IF(ISERROR(VLOOKUP(B17,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B17,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D17" s="2">
+        <f>IF(ISERROR(VLOOKUP(C17,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C17,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>120</v>
       </c>
-      <c r="D17" s="2">
-        <f>IF(ISERROR(VLOOKUP(B17,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B17,Dan!$C$1:$AF$71,29,FALSE)) - C17</f>
+      <c r="E17" s="2">
+        <f>IF(ISERROR(VLOOKUP(C17,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C17,Dan!$C$1:$AF$74,29,FALSE))-D17</f>
         <v>330</v>
       </c>
-      <c r="E17" s="2">
-        <f>IF(ISERROR(VLOOKUP(B17,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B17,Dan!$C$1:$AF$71,30,FALSE)) - C17</f>
+      <c r="F17" s="2">
+        <f>IF(ISERROR(VLOOKUP(C17,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C17,Dan!$C$1:$AF$74,30,FALSE))-D17</f>
         <v>380</v>
       </c>
-      <c r="H17" s="2">
-        <v>24</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="2">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="J17" s="2">
-        <f>IF(ISERROR(VLOOKUP(I17,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I17,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K17" s="2">
+        <f>IF(ISERROR(VLOOKUP(J17,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J17,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K17" s="2">
-        <f>IF(ISERROR(VLOOKUP(I17,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I17,Dan!$C$1:$AF$71,29,FALSE)) - J17</f>
-        <v>36</v>
-      </c>
       <c r="L17" s="2">
-        <f>IF(ISERROR(VLOOKUP(I17,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I17,Dan!$C$1:$AF$71,30,FALSE)) - J17</f>
+        <f>IF(ISERROR(VLOOKUP(J17,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J17,Dan!$C$1:$AF$74,29,FALSE))-K17</f>
+        <v>36</v>
+      </c>
+      <c r="M17" s="2">
+        <f>IF(ISERROR(VLOOKUP(J17,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J17,Dan!$C$1:$AF$74,30,FALSE))-K17</f>
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="2">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="2">
-        <f>IF(ISERROR(VLOOKUP(B18,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B18,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D18" s="2">
+        <f>IF(ISERROR(VLOOKUP(C18,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C18,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>906</v>
       </c>
-      <c r="D18" s="2">
-        <f>IF(ISERROR(VLOOKUP(B18,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B18,Dan!$C$1:$AF$71,29,FALSE)) - C18</f>
+      <c r="E18" s="2">
+        <f>IF(ISERROR(VLOOKUP(C18,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C18,Dan!$C$1:$AF$74,29,FALSE))-D18</f>
         <v>246</v>
       </c>
-      <c r="E18" s="2">
-        <f>IF(ISERROR(VLOOKUP(B18,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B18,Dan!$C$1:$AF$71,30,FALSE)) - C18</f>
+      <c r="F18" s="2">
+        <f>IF(ISERROR(VLOOKUP(C18,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C18,Dan!$C$1:$AF$74,30,FALSE))-D18</f>
         <v>374</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>25</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="2">
-        <f>IF(ISERROR(VLOOKUP(I18,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I18,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K18" s="2">
+        <f>IF(ISERROR(VLOOKUP(J18,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J18,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>216</v>
       </c>
-      <c r="K18" s="2">
-        <f>IF(ISERROR(VLOOKUP(I18,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I18,Dan!$C$1:$AF$71,29,FALSE)) - J18</f>
-        <v>36</v>
-      </c>
       <c r="L18" s="2">
-        <f>IF(ISERROR(VLOOKUP(I18,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I18,Dan!$C$1:$AF$71,30,FALSE)) - J18</f>
+        <f>IF(ISERROR(VLOOKUP(J18,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J18,Dan!$C$1:$AF$74,29,FALSE))-K18</f>
+        <v>36</v>
+      </c>
+      <c r="M18" s="2">
+        <f>IF(ISERROR(VLOOKUP(J18,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J18,Dan!$C$1:$AF$74,30,FALSE))-K18</f>
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13">
       <c r="A19" s="2">
         <v>52</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="2">
-        <f>IF(ISERROR(VLOOKUP(B19,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B19,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D19" s="2">
+        <f>IF(ISERROR(VLOOKUP(C19,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C19,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>930</v>
       </c>
-      <c r="D19" s="2">
-        <f>IF(ISERROR(VLOOKUP(B19,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B19,Dan!$C$1:$AF$71,29,FALSE)) - C19</f>
+      <c r="E19" s="2">
+        <f>IF(ISERROR(VLOOKUP(C19,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C19,Dan!$C$1:$AF$74,29,FALSE))-D19</f>
         <v>195</v>
       </c>
-      <c r="E19" s="2">
-        <f>IF(ISERROR(VLOOKUP(B19,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B19,Dan!$C$1:$AF$71,30,FALSE)) - C19</f>
+      <c r="F19" s="2">
+        <f>IF(ISERROR(VLOOKUP(C19,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C19,Dan!$C$1:$AF$74,30,FALSE))-D19</f>
         <v>320</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="J19" s="2">
-        <f>IF(ISERROR(VLOOKUP(I19,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I19,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K19" s="2">
+        <f>IF(ISERROR(VLOOKUP(J19,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J19,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="K19" s="2">
-        <f>IF(ISERROR(VLOOKUP(I19,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I19,Dan!$C$1:$AF$71,29,FALSE)) - J19</f>
-        <v>41.400000000000006</v>
-      </c>
       <c r="L19" s="2">
-        <f>IF(ISERROR(VLOOKUP(I19,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I19,Dan!$C$1:$AF$71,30,FALSE)) - J19</f>
+        <f>IF(ISERROR(VLOOKUP(J19,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J19,Dan!$C$1:$AF$74,29,FALSE))-K19</f>
+        <v>41.4</v>
+      </c>
+      <c r="M19" s="2">
+        <f>IF(ISERROR(VLOOKUP(J19,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J19,Dan!$C$1:$AF$74,30,FALSE))-K19</f>
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="2">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="2">
-        <f>IF(ISERROR(VLOOKUP(B20,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B20,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D20" s="2">
+        <f>IF(ISERROR(VLOOKUP(C20,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C20,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>4770</v>
       </c>
-      <c r="D20" s="2">
-        <f>IF(ISERROR(VLOOKUP(B20,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B20,Dan!$C$1:$AF$71,29,FALSE)) - C20</f>
+      <c r="E20" s="2">
+        <f>IF(ISERROR(VLOOKUP(C20,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C20,Dan!$C$1:$AF$74,29,FALSE))-D20</f>
         <v>-270</v>
       </c>
-      <c r="E20" s="2">
-        <f>IF(ISERROR(VLOOKUP(B20,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B20,Dan!$C$1:$AF$71,30,FALSE)) - C20</f>
+      <c r="F20" s="2">
+        <f>IF(ISERROR(VLOOKUP(C20,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C20,Dan!$C$1:$AF$74,30,FALSE))-D20</f>
         <v>230</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>7</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="2">
-        <f>IF(ISERROR(VLOOKUP(I20,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I20,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K20" s="2">
+        <f>IF(ISERROR(VLOOKUP(J20,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J20,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>81</v>
       </c>
-      <c r="K20" s="2">
-        <f>IF(ISERROR(VLOOKUP(I20,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I20,Dan!$C$1:$AF$71,29,FALSE)) - J20</f>
+      <c r="L20" s="2">
+        <f>IF(ISERROR(VLOOKUP(J20,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J20,Dan!$C$1:$AF$74,29,FALSE))-K20</f>
         <v>46.8</v>
       </c>
-      <c r="L20" s="2">
-        <f>IF(ISERROR(VLOOKUP(I20,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I20,Dan!$C$1:$AF$71,30,FALSE)) - J20</f>
+      <c r="M20" s="2">
+        <f>IF(ISERROR(VLOOKUP(J20,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J20,Dan!$C$1:$AF$74,30,FALSE))-K20</f>
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="2">
         <v>27</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="2">
-        <f>IF(ISERROR(VLOOKUP(B21,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B21,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D21" s="2">
+        <f>IF(ISERROR(VLOOKUP(C21,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C21,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>168</v>
       </c>
-      <c r="D21" s="2">
-        <f>IF(ISERROR(VLOOKUP(B21,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B21,Dan!$C$1:$AF$71,29,FALSE)) - C21</f>
-        <v>168.60000000000002</v>
-      </c>
       <c r="E21" s="2">
-        <f>IF(ISERROR(VLOOKUP(B21,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B21,Dan!$C$1:$AF$71,30,FALSE)) - C21</f>
+        <f>IF(ISERROR(VLOOKUP(C21,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C21,Dan!$C$1:$AF$74,29,FALSE))-D21</f>
+        <v>168.6</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IF(ISERROR(VLOOKUP(C21,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C21,Dan!$C$1:$AF$74,30,FALSE))-D21</f>
         <v>206</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>12</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J21" s="2">
-        <f>IF(ISERROR(VLOOKUP(I21,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I21,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K21" s="2">
+        <f>IF(ISERROR(VLOOKUP(J21,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J21,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>81</v>
       </c>
-      <c r="K21" s="2">
-        <f>IF(ISERROR(VLOOKUP(I21,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I21,Dan!$C$1:$AF$71,29,FALSE)) - J21</f>
+      <c r="L21" s="2">
+        <f>IF(ISERROR(VLOOKUP(J21,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J21,Dan!$C$1:$AF$74,29,FALSE))-K21</f>
         <v>46.8</v>
       </c>
-      <c r="L21" s="2">
-        <f>IF(ISERROR(VLOOKUP(I21,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I21,Dan!$C$1:$AF$71,30,FALSE)) - J21</f>
+      <c r="M21" s="2">
+        <f>IF(ISERROR(VLOOKUP(J21,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J21,Dan!$C$1:$AF$74,30,FALSE))-K21</f>
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="2">
         <v>46</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="2">
-        <f>IF(ISERROR(VLOOKUP(B22,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B22,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D22" s="2">
+        <f>IF(ISERROR(VLOOKUP(C22,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C22,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>906</v>
       </c>
-      <c r="D22" s="2">
-        <f>IF(ISERROR(VLOOKUP(B22,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B22,Dan!$C$1:$AF$71,29,FALSE)) - C22</f>
+      <c r="E22" s="2">
+        <f>IF(ISERROR(VLOOKUP(C22,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C22,Dan!$C$1:$AF$74,29,FALSE))-D22</f>
         <v>84</v>
       </c>
-      <c r="E22" s="2">
-        <f>IF(ISERROR(VLOOKUP(B22,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B22,Dan!$C$1:$AF$71,30,FALSE)) - C22</f>
+      <c r="F22" s="2">
+        <f>IF(ISERROR(VLOOKUP(C22,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C22,Dan!$C$1:$AF$74,30,FALSE))-D22</f>
         <v>194</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="2">
-        <f>IF(ISERROR(VLOOKUP(I22,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I22,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K22" s="2">
+        <f>IF(ISERROR(VLOOKUP(J22,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J22,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>54</v>
       </c>
-      <c r="K22" s="2">
-        <f>IF(ISERROR(VLOOKUP(I22,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I22,Dan!$C$1:$AF$71,29,FALSE)) - J22</f>
-        <v>41.400000000000006</v>
-      </c>
       <c r="L22" s="2">
-        <f>IF(ISERROR(VLOOKUP(I22,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I22,Dan!$C$1:$AF$71,30,FALSE)) - J22</f>
+        <f>IF(ISERROR(VLOOKUP(J22,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J22,Dan!$C$1:$AF$74,29,FALSE))-K22</f>
+        <v>41.4</v>
+      </c>
+      <c r="M22" s="2">
+        <f>IF(ISERROR(VLOOKUP(J22,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J22,Dan!$C$1:$AF$74,30,FALSE))-K22</f>
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13">
       <c r="A23" s="2">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="2">
-        <f>IF(ISERROR(VLOOKUP(B23,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B23,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D23" s="2">
+        <f>IF(ISERROR(VLOOKUP(C23,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C23,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>834</v>
       </c>
-      <c r="D23" s="2">
-        <f>IF(ISERROR(VLOOKUP(B23,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B23,Dan!$C$1:$AF$71,29,FALSE)) - C23</f>
+      <c r="E23" s="2">
+        <f>IF(ISERROR(VLOOKUP(C23,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C23,Dan!$C$1:$AF$74,29,FALSE))-D23</f>
         <v>66</v>
       </c>
-      <c r="E23" s="2">
-        <f>IF(ISERROR(VLOOKUP(B23,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B23,Dan!$C$1:$AF$71,30,FALSE)) - C23</f>
+      <c r="F23" s="2">
+        <f>IF(ISERROR(VLOOKUP(C23,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C23,Dan!$C$1:$AF$74,30,FALSE))-D23</f>
         <v>166</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>9</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J23" s="2">
-        <f>IF(ISERROR(VLOOKUP(I23,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I23,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K23" s="2">
+        <f>IF(ISERROR(VLOOKUP(J23,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J23,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>108</v>
       </c>
-      <c r="K23" s="2">
-        <f>IF(ISERROR(VLOOKUP(I23,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I23,Dan!$C$1:$AF$71,29,FALSE)) - J23</f>
+      <c r="L23" s="2">
+        <f>IF(ISERROR(VLOOKUP(J23,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J23,Dan!$C$1:$AF$74,29,FALSE))-K23</f>
         <v>27</v>
       </c>
-      <c r="L23" s="2">
-        <f>IF(ISERROR(VLOOKUP(I23,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I23,Dan!$C$1:$AF$71,30,FALSE)) - J23</f>
+      <c r="M23" s="2">
+        <f>IF(ISERROR(VLOOKUP(J23,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J23,Dan!$C$1:$AF$74,30,FALSE))-K23</f>
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13">
       <c r="A24" s="2">
         <v>42</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="2">
-        <f>IF(ISERROR(VLOOKUP(B24,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B24,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D24" s="2">
+        <f>IF(ISERROR(VLOOKUP(C24,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C24,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>834</v>
       </c>
-      <c r="D24" s="2">
-        <f>IF(ISERROR(VLOOKUP(B24,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B24,Dan!$C$1:$AF$71,29,FALSE)) - C24</f>
+      <c r="E24" s="2">
+        <f>IF(ISERROR(VLOOKUP(C24,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C24,Dan!$C$1:$AF$74,29,FALSE))-D24</f>
         <v>66</v>
       </c>
-      <c r="E24" s="2">
-        <f>IF(ISERROR(VLOOKUP(B24,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B24,Dan!$C$1:$AF$71,30,FALSE)) - C24</f>
+      <c r="F24" s="2">
+        <f>IF(ISERROR(VLOOKUP(C24,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C24,Dan!$C$1:$AF$74,30,FALSE))-D24</f>
         <v>166</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="2">
-        <f>IF(ISERROR(VLOOKUP(I24,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I24,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K24" s="2">
+        <f>IF(ISERROR(VLOOKUP(J24,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J24,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>27</v>
       </c>
-      <c r="K24" s="2">
-        <f>IF(ISERROR(VLOOKUP(I24,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I24,Dan!$C$1:$AF$71,29,FALSE)) - J24</f>
-        <v>34.200000000000003</v>
-      </c>
       <c r="L24" s="2">
-        <f>IF(ISERROR(VLOOKUP(I24,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I24,Dan!$C$1:$AF$71,30,FALSE)) - J24</f>
+        <f>IF(ISERROR(VLOOKUP(J24,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J24,Dan!$C$1:$AF$74,29,FALSE))-K24</f>
+        <v>34.2</v>
+      </c>
+      <c r="M24" s="2">
+        <f>IF(ISERROR(VLOOKUP(J24,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J24,Dan!$C$1:$AF$74,30,FALSE))-K24</f>
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13">
       <c r="A25" s="2">
         <v>43</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C25" s="2">
-        <f>IF(ISERROR(VLOOKUP(B25,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B25,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D25" s="2">
+        <f>IF(ISERROR(VLOOKUP(C25,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C25,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>834</v>
       </c>
-      <c r="D25" s="2">
-        <f>IF(ISERROR(VLOOKUP(B25,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B25,Dan!$C$1:$AF$71,29,FALSE)) - C25</f>
+      <c r="E25" s="2">
+        <f>IF(ISERROR(VLOOKUP(C25,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C25,Dan!$C$1:$AF$74,29,FALSE))-D25</f>
         <v>66</v>
       </c>
-      <c r="E25" s="2">
-        <f>IF(ISERROR(VLOOKUP(B25,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B25,Dan!$C$1:$AF$71,30,FALSE)) - C25</f>
+      <c r="F25" s="2">
+        <f>IF(ISERROR(VLOOKUP(C25,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C25,Dan!$C$1:$AF$74,30,FALSE))-D25</f>
         <v>166</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>5</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J25" s="2">
-        <f>IF(ISERROR(VLOOKUP(I25,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I25,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K25" s="2">
+        <f>IF(ISERROR(VLOOKUP(J25,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J25,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>81</v>
       </c>
-      <c r="K25" s="2">
-        <f>IF(ISERROR(VLOOKUP(I25,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I25,Dan!$C$1:$AF$71,29,FALSE)) - J25</f>
-        <v>25.200000000000003</v>
-      </c>
       <c r="L25" s="2">
-        <f>IF(ISERROR(VLOOKUP(I25,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I25,Dan!$C$1:$AF$71,30,FALSE)) - J25</f>
+        <f>IF(ISERROR(VLOOKUP(J25,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J25,Dan!$C$1:$AF$74,29,FALSE))-K25</f>
+        <v>25.2</v>
+      </c>
+      <c r="M25" s="2">
+        <f>IF(ISERROR(VLOOKUP(J25,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J25,Dan!$C$1:$AF$74,30,FALSE))-K25</f>
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13">
       <c r="A26" s="2">
         <v>44</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C26" s="2">
-        <f>IF(ISERROR(VLOOKUP(B26,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B26,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D26" s="2">
+        <f>IF(ISERROR(VLOOKUP(C26,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C26,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>834</v>
       </c>
-      <c r="D26" s="2">
-        <f>IF(ISERROR(VLOOKUP(B26,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B26,Dan!$C$1:$AF$71,29,FALSE)) - C26</f>
+      <c r="E26" s="2">
+        <f>IF(ISERROR(VLOOKUP(C26,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C26,Dan!$C$1:$AF$74,29,FALSE))-D26</f>
         <v>66</v>
       </c>
-      <c r="E26" s="2">
-        <f>IF(ISERROR(VLOOKUP(B26,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B26,Dan!$C$1:$AF$71,30,FALSE)) - C26</f>
+      <c r="F26" s="2">
+        <f>IF(ISERROR(VLOOKUP(C26,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C26,Dan!$C$1:$AF$74,30,FALSE))-D26</f>
         <v>166</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="2">
-        <f>IF(ISERROR(VLOOKUP(I26,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I26,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K26" s="2">
+        <f>IF(ISERROR(VLOOKUP(J26,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J26,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>189</v>
       </c>
-      <c r="K26" s="2">
-        <f>IF(ISERROR(VLOOKUP(I26,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I26,Dan!$C$1:$AF$71,29,FALSE)) - J26</f>
-        <v>12.599999999999994</v>
-      </c>
       <c r="L26" s="2">
-        <f>IF(ISERROR(VLOOKUP(I26,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I26,Dan!$C$1:$AF$71,30,FALSE)) - J26</f>
+        <f>IF(ISERROR(VLOOKUP(J26,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J26,Dan!$C$1:$AF$74,29,FALSE))-K26</f>
+        <v>12.6</v>
+      </c>
+      <c r="M26" s="2">
+        <f>IF(ISERROR(VLOOKUP(J26,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J26,Dan!$C$1:$AF$74,30,FALSE))-K26</f>
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13">
       <c r="A27" s="2">
         <v>45</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="2">
-        <f>IF(ISERROR(VLOOKUP(B27,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B27,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D27" s="2">
+        <f>IF(ISERROR(VLOOKUP(C27,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C27,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>834</v>
       </c>
-      <c r="D27" s="2">
-        <f>IF(ISERROR(VLOOKUP(B27,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B27,Dan!$C$1:$AF$71,29,FALSE)) - C27</f>
+      <c r="E27" s="2">
+        <f>IF(ISERROR(VLOOKUP(C27,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C27,Dan!$C$1:$AF$74,29,FALSE))-D27</f>
         <v>66</v>
       </c>
-      <c r="E27" s="2">
-        <f>IF(ISERROR(VLOOKUP(B27,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B27,Dan!$C$1:$AF$71,30,FALSE)) - C27</f>
+      <c r="F27" s="2">
+        <f>IF(ISERROR(VLOOKUP(C27,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C27,Dan!$C$1:$AF$74,30,FALSE))-D27</f>
         <v>166</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>6</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="J27" s="2">
-        <f>IF(ISERROR(VLOOKUP(I27,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I27,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K27" s="2">
+        <f>IF(ISERROR(VLOOKUP(J27,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J27,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>108</v>
       </c>
-      <c r="K27" s="2">
-        <f>IF(ISERROR(VLOOKUP(I27,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I27,Dan!$C$1:$AF$71,29,FALSE)) - J27</f>
-        <v>19.799999999999997</v>
-      </c>
       <c r="L27" s="2">
-        <f>IF(ISERROR(VLOOKUP(I27,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I27,Dan!$C$1:$AF$71,30,FALSE)) - J27</f>
+        <f>IF(ISERROR(VLOOKUP(J27,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J27,Dan!$C$1:$AF$74,29,FALSE))-K27</f>
+        <v>19.8</v>
+      </c>
+      <c r="M27" s="2">
+        <f>IF(ISERROR(VLOOKUP(J27,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J27,Dan!$C$1:$AF$74,30,FALSE))-K27</f>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13">
       <c r="A28" s="2">
         <v>13</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="2">
-        <f>IF(ISERROR(VLOOKUP(B28,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B28,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D28" s="2">
+        <f>IF(ISERROR(VLOOKUP(C28,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C28,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>192</v>
       </c>
-      <c r="D28" s="2">
-        <f>IF(ISERROR(VLOOKUP(B28,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B28,Dan!$C$1:$AF$71,29,FALSE)) - C28</f>
-        <v>128.40000000000003</v>
-      </c>
       <c r="E28" s="2">
-        <f>IF(ISERROR(VLOOKUP(B28,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B28,Dan!$C$1:$AF$71,30,FALSE)) - C28</f>
+        <f>IF(ISERROR(VLOOKUP(C28,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C28,Dan!$C$1:$AF$74,29,FALSE))-D28</f>
+        <v>128.4</v>
+      </c>
+      <c r="F28" s="2">
+        <f>IF(ISERROR(VLOOKUP(C28,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C28,Dan!$C$1:$AF$74,30,FALSE))-D28</f>
         <v>164</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J28" s="2">
-        <f>IF(ISERROR(VLOOKUP(I28,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I28,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K28" s="2">
+        <f>IF(ISERROR(VLOOKUP(J28,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J28,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>135</v>
       </c>
-      <c r="K28" s="2">
-        <f>IF(ISERROR(VLOOKUP(I28,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I28,Dan!$C$1:$AF$71,29,FALSE)) - J28</f>
-        <v>16.200000000000017</v>
-      </c>
       <c r="L28" s="2">
-        <f>IF(ISERROR(VLOOKUP(I28,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I28,Dan!$C$1:$AF$71,30,FALSE)) - J28</f>
+        <f>IF(ISERROR(VLOOKUP(J28,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J28,Dan!$C$1:$AF$74,29,FALSE))-K28</f>
+        <v>16.2</v>
+      </c>
+      <c r="M28" s="2">
+        <f>IF(ISERROR(VLOOKUP(J28,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J28,Dan!$C$1:$AF$74,30,FALSE))-K28</f>
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C29" s="2">
-        <f>IF(ISERROR(VLOOKUP(B29,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B29,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D29" s="2">
+        <f>IF(ISERROR(VLOOKUP(C29,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C29,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>168</v>
       </c>
-      <c r="D29" s="2">
-        <f>IF(ISERROR(VLOOKUP(B29,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B29,Dan!$C$1:$AF$71,29,FALSE)) - C29</f>
+      <c r="E29" s="2">
+        <f>IF(ISERROR(VLOOKUP(C29,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C29,Dan!$C$1:$AF$74,29,FALSE))-D29</f>
         <v>129</v>
       </c>
-      <c r="E29" s="2">
-        <f>IF(ISERROR(VLOOKUP(B29,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B29,Dan!$C$1:$AF$71,30,FALSE)) - C29</f>
+      <c r="F29" s="2">
+        <f>IF(ISERROR(VLOOKUP(C29,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C29,Dan!$C$1:$AF$74,30,FALSE))-D29</f>
         <v>162</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>20</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J29" s="2">
-        <f>IF(ISERROR(VLOOKUP(I29,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I29,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K29" s="2">
+        <f>IF(ISERROR(VLOOKUP(J29,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J29,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>252</v>
       </c>
-      <c r="K29" s="2">
-        <f>IF(ISERROR(VLOOKUP(I29,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I29,Dan!$C$1:$AF$71,29,FALSE)) - J29</f>
-        <v>0</v>
-      </c>
       <c r="L29" s="2">
-        <f>IF(ISERROR(VLOOKUP(I29,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I29,Dan!$C$1:$AF$71,30,FALSE)) - J29</f>
+        <f>IF(ISERROR(VLOOKUP(J29,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J29,Dan!$C$1:$AF$74,29,FALSE))-K29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f>IF(ISERROR(VLOOKUP(J29,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J29,Dan!$C$1:$AF$74,30,FALSE))-K29</f>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13">
       <c r="A30" s="2">
         <v>11</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="2">
-        <f>IF(ISERROR(VLOOKUP(B30,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B30,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D30" s="2">
+        <f>IF(ISERROR(VLOOKUP(C30,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C30,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>462</v>
       </c>
-      <c r="D30" s="2">
-        <f>IF(ISERROR(VLOOKUP(B30,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B30,Dan!$C$1:$AF$71,29,FALSE)) - C30</f>
-        <v>85.200000000000045</v>
-      </c>
       <c r="E30" s="2">
-        <f>IF(ISERROR(VLOOKUP(B30,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B30,Dan!$C$1:$AF$71,30,FALSE)) - C30</f>
+        <f>IF(ISERROR(VLOOKUP(C30,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C30,Dan!$C$1:$AF$74,29,FALSE))-D30</f>
+        <v>85.2</v>
+      </c>
+      <c r="F30" s="2">
+        <f>IF(ISERROR(VLOOKUP(C30,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C30,Dan!$C$1:$AF$74,30,FALSE))-D30</f>
         <v>146</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>39</v>
       </c>
-      <c r="I30" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J30" s="2">
-        <f>IF(ISERROR(VLOOKUP(I30,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I30,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K30" s="2">
+        <f>IF(ISERROR(VLOOKUP(J30,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J30,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1503</v>
       </c>
-      <c r="K30" s="2">
-        <f>IF(ISERROR(VLOOKUP(I30,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I30,Dan!$C$1:$AF$71,29,FALSE)) - J30</f>
+      <c r="L30" s="2">
+        <f>IF(ISERROR(VLOOKUP(J30,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J30,Dan!$C$1:$AF$74,29,FALSE))-K30</f>
         <v>-153</v>
       </c>
-      <c r="L30" s="2">
-        <f>IF(ISERROR(VLOOKUP(I30,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I30,Dan!$C$1:$AF$71,30,FALSE)) - J30</f>
+      <c r="M30" s="2">
+        <f>IF(ISERROR(VLOOKUP(J30,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J30,Dan!$C$1:$AF$74,30,FALSE))-K30</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13">
       <c r="A31" s="2">
         <v>18</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="2">
-        <f>IF(ISERROR(VLOOKUP(B31,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B31,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D31" s="2">
+        <f>IF(ISERROR(VLOOKUP(C31,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C31,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D31" s="2">
-        <f>IF(ISERROR(VLOOKUP(B31,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B31,Dan!$C$1:$AF$71,29,FALSE)) - C31</f>
+      <c r="E31" s="2">
+        <f>IF(ISERROR(VLOOKUP(C31,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C31,Dan!$C$1:$AF$74,29,FALSE))-D31</f>
         <v>108</v>
       </c>
-      <c r="E31" s="2">
-        <f>IF(ISERROR(VLOOKUP(B31,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B31,Dan!$C$1:$AF$71,30,FALSE)) - C31</f>
+      <c r="F31" s="2">
+        <f>IF(ISERROR(VLOOKUP(C31,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C31,Dan!$C$1:$AF$74,30,FALSE))-D31</f>
         <v>136</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>26</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="2">
-        <f>IF(ISERROR(VLOOKUP(I31,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I31,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K31" s="2">
+        <f>IF(ISERROR(VLOOKUP(J31,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J31,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1359</v>
       </c>
-      <c r="K31" s="2">
-        <f>IF(ISERROR(VLOOKUP(I31,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I31,Dan!$C$1:$AF$71,29,FALSE)) - J31</f>
+      <c r="L31" s="2">
+        <f>IF(ISERROR(VLOOKUP(J31,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J31,Dan!$C$1:$AF$74,29,FALSE))-K31</f>
         <v>-207</v>
       </c>
-      <c r="L31" s="2">
-        <f>IF(ISERROR(VLOOKUP(I31,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I31,Dan!$C$1:$AF$71,30,FALSE)) - J31</f>
+      <c r="M31" s="2">
+        <f>IF(ISERROR(VLOOKUP(J31,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J31,Dan!$C$1:$AF$74,30,FALSE))-K31</f>
         <v>-79</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13">
       <c r="A32" s="2">
         <v>21</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C32" s="2">
-        <f>IF(ISERROR(VLOOKUP(B32,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B32,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D32" s="2">
+        <f>IF(ISERROR(VLOOKUP(C32,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C32,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D32" s="2">
-        <f>IF(ISERROR(VLOOKUP(B32,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B32,Dan!$C$1:$AF$71,29,FALSE)) - C32</f>
+      <c r="E32" s="2">
+        <f>IF(ISERROR(VLOOKUP(C32,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C32,Dan!$C$1:$AF$74,29,FALSE))-D32</f>
         <v>108</v>
       </c>
-      <c r="E32" s="2">
-        <f>IF(ISERROR(VLOOKUP(B32,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B32,Dan!$C$1:$AF$71,30,FALSE)) - C32</f>
+      <c r="F32" s="2">
+        <f>IF(ISERROR(VLOOKUP(C32,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C32,Dan!$C$1:$AF$74,30,FALSE))-D32</f>
         <v>136</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>11</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J32" s="2">
-        <f>IF(ISERROR(VLOOKUP(I32,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I32,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K32" s="2">
+        <f>IF(ISERROR(VLOOKUP(J32,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J32,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>693</v>
       </c>
-      <c r="K32" s="2">
-        <f>IF(ISERROR(VLOOKUP(I32,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I32,Dan!$C$1:$AF$71,29,FALSE)) - J32</f>
-        <v>-145.79999999999995</v>
-      </c>
       <c r="L32" s="2">
-        <f>IF(ISERROR(VLOOKUP(I32,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I32,Dan!$C$1:$AF$71,30,FALSE)) - J32</f>
+        <f>IF(ISERROR(VLOOKUP(J32,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J32,Dan!$C$1:$AF$74,29,FALSE))-K32</f>
+        <v>-145.8</v>
+      </c>
+      <c r="M32" s="2">
+        <f>IF(ISERROR(VLOOKUP(J32,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J32,Dan!$C$1:$AF$74,30,FALSE))-K32</f>
         <v>-85</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13">
       <c r="A33" s="2">
         <v>22</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="2">
-        <f>IF(ISERROR(VLOOKUP(B33,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B33,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D33" s="2">
+        <f>IF(ISERROR(VLOOKUP(C33,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C33,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D33" s="2">
-        <f>IF(ISERROR(VLOOKUP(B33,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B33,Dan!$C$1:$AF$71,29,FALSE)) - C33</f>
+      <c r="E33" s="2">
+        <f>IF(ISERROR(VLOOKUP(C33,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C33,Dan!$C$1:$AF$74,29,FALSE))-D33</f>
         <v>108</v>
       </c>
-      <c r="E33" s="2">
-        <f>IF(ISERROR(VLOOKUP(B33,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B33,Dan!$C$1:$AF$71,30,FALSE)) - C33</f>
+      <c r="F33" s="2">
+        <f>IF(ISERROR(VLOOKUP(C33,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C33,Dan!$C$1:$AF$74,30,FALSE))-D33</f>
         <v>136</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <v>19</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J33" s="2">
-        <f>IF(ISERROR(VLOOKUP(I33,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I33,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K33" s="2">
+        <f>IF(ISERROR(VLOOKUP(J33,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J33,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>657</v>
       </c>
-      <c r="K33" s="2">
-        <f>IF(ISERROR(VLOOKUP(I33,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I33,Dan!$C$1:$AF$71,29,FALSE)) - J33</f>
-        <v>-185.39999999999998</v>
-      </c>
       <c r="L33" s="2">
-        <f>IF(ISERROR(VLOOKUP(I33,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I33,Dan!$C$1:$AF$71,30,FALSE)) - J33</f>
+        <f>IF(ISERROR(VLOOKUP(J33,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J33,Dan!$C$1:$AF$74,29,FALSE))-K33</f>
+        <v>-185.4</v>
+      </c>
+      <c r="M33" s="2">
+        <f>IF(ISERROR(VLOOKUP(J33,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J33,Dan!$C$1:$AF$74,30,FALSE))-K33</f>
         <v>-133</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13">
       <c r="A34" s="2">
         <v>23</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C34" s="2">
-        <f>IF(ISERROR(VLOOKUP(B34,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B34,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D34" s="2">
+        <f>IF(ISERROR(VLOOKUP(C34,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C34,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D34" s="2">
-        <f>IF(ISERROR(VLOOKUP(B34,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B34,Dan!$C$1:$AF$71,29,FALSE)) - C34</f>
+      <c r="E34" s="2">
+        <f>IF(ISERROR(VLOOKUP(C34,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C34,Dan!$C$1:$AF$74,29,FALSE))-D34</f>
         <v>108</v>
       </c>
-      <c r="E34" s="2">
-        <f>IF(ISERROR(VLOOKUP(B34,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B34,Dan!$C$1:$AF$71,30,FALSE)) - C34</f>
+      <c r="F34" s="2">
+        <f>IF(ISERROR(VLOOKUP(C34,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C34,Dan!$C$1:$AF$74,30,FALSE))-D34</f>
         <v>136</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <v>52</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J34" s="2">
-        <f>IF(ISERROR(VLOOKUP(I34,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I34,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K34" s="2">
+        <f>IF(ISERROR(VLOOKUP(J34,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J34,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1395</v>
       </c>
-      <c r="K34" s="2">
-        <f>IF(ISERROR(VLOOKUP(I34,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I34,Dan!$C$1:$AF$71,29,FALSE)) - J34</f>
+      <c r="L34" s="2">
+        <f>IF(ISERROR(VLOOKUP(J34,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J34,Dan!$C$1:$AF$74,29,FALSE))-K34</f>
         <v>-270</v>
       </c>
-      <c r="L34" s="2">
-        <f>IF(ISERROR(VLOOKUP(I34,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I34,Dan!$C$1:$AF$71,30,FALSE)) - J34</f>
+      <c r="M34" s="2">
+        <f>IF(ISERROR(VLOOKUP(J34,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J34,Dan!$C$1:$AF$74,30,FALSE))-K34</f>
         <v>-145</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13">
       <c r="A35" s="2">
         <v>24</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C35" s="2">
-        <f>IF(ISERROR(VLOOKUP(B35,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B35,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D35" s="2">
+        <f>IF(ISERROR(VLOOKUP(C35,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C35,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D35" s="2">
-        <f>IF(ISERROR(VLOOKUP(B35,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B35,Dan!$C$1:$AF$71,29,FALSE)) - C35</f>
+      <c r="E35" s="2">
+        <f>IF(ISERROR(VLOOKUP(C35,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C35,Dan!$C$1:$AF$74,29,FALSE))-D35</f>
         <v>108</v>
       </c>
-      <c r="E35" s="2">
-        <f>IF(ISERROR(VLOOKUP(B35,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B35,Dan!$C$1:$AF$71,30,FALSE)) - C35</f>
+      <c r="F35" s="2">
+        <f>IF(ISERROR(VLOOKUP(C35,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C35,Dan!$C$1:$AF$74,30,FALSE))-D35</f>
         <v>136</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <v>31</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="J35" s="2">
-        <f>IF(ISERROR(VLOOKUP(I35,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I35,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K35" s="2">
+        <f>IF(ISERROR(VLOOKUP(J35,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J35,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1026</v>
       </c>
-      <c r="K35" s="2">
-        <f>IF(ISERROR(VLOOKUP(I35,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I35,Dan!$C$1:$AF$71,29,FALSE)) - J35</f>
+      <c r="L35" s="2">
+        <f>IF(ISERROR(VLOOKUP(J35,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J35,Dan!$C$1:$AF$74,29,FALSE))-K35</f>
         <v>-306</v>
       </c>
-      <c r="L35" s="2">
-        <f>IF(ISERROR(VLOOKUP(I35,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I35,Dan!$C$1:$AF$71,30,FALSE)) - J35</f>
+      <c r="M35" s="2">
+        <f>IF(ISERROR(VLOOKUP(J35,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J35,Dan!$C$1:$AF$74,30,FALSE))-K35</f>
         <v>-226</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13">
       <c r="A36" s="2">
         <v>25</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="2">
-        <f>IF(ISERROR(VLOOKUP(B36,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B36,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D36" s="2">
+        <f>IF(ISERROR(VLOOKUP(C36,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C36,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>144</v>
       </c>
-      <c r="D36" s="2">
-        <f>IF(ISERROR(VLOOKUP(B36,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B36,Dan!$C$1:$AF$71,29,FALSE)) - C36</f>
+      <c r="E36" s="2">
+        <f>IF(ISERROR(VLOOKUP(C36,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C36,Dan!$C$1:$AF$74,29,FALSE))-D36</f>
         <v>108</v>
       </c>
-      <c r="E36" s="2">
-        <f>IF(ISERROR(VLOOKUP(B36,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B36,Dan!$C$1:$AF$71,30,FALSE)) - C36</f>
+      <c r="F36" s="2">
+        <f>IF(ISERROR(VLOOKUP(C36,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C36,Dan!$C$1:$AF$74,30,FALSE))-D36</f>
         <v>136</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>32</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J36" s="2">
-        <f>IF(ISERROR(VLOOKUP(I36,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I36,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K36" s="2">
+        <f>IF(ISERROR(VLOOKUP(J36,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J36,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1026</v>
       </c>
-      <c r="K36" s="2">
-        <f>IF(ISERROR(VLOOKUP(I36,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I36,Dan!$C$1:$AF$71,29,FALSE)) - J36</f>
+      <c r="L36" s="2">
+        <f>IF(ISERROR(VLOOKUP(J36,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J36,Dan!$C$1:$AF$74,29,FALSE))-K36</f>
         <v>-306</v>
       </c>
-      <c r="L36" s="2">
-        <f>IF(ISERROR(VLOOKUP(I36,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I36,Dan!$C$1:$AF$71,30,FALSE)) - J36</f>
+      <c r="M36" s="2">
+        <f>IF(ISERROR(VLOOKUP(J36,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J36,Dan!$C$1:$AF$74,30,FALSE))-K36</f>
         <v>-226</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13">
       <c r="A37" s="2">
         <v>14</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="2">
-        <f>IF(ISERROR(VLOOKUP(B37,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B37,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D37" s="2">
+        <f>IF(ISERROR(VLOOKUP(C37,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C37,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>96</v>
       </c>
-      <c r="D37" s="2">
-        <f>IF(ISERROR(VLOOKUP(B37,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B37,Dan!$C$1:$AF$71,29,FALSE)) - C37</f>
+      <c r="E37" s="2">
+        <f>IF(ISERROR(VLOOKUP(C37,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C37,Dan!$C$1:$AF$74,29,FALSE))-D37</f>
         <v>111</v>
       </c>
-      <c r="E37" s="2">
-        <f>IF(ISERROR(VLOOKUP(B37,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B37,Dan!$C$1:$AF$71,30,FALSE)) - C37</f>
+      <c r="F37" s="2">
+        <f>IF(ISERROR(VLOOKUP(C37,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C37,Dan!$C$1:$AF$74,30,FALSE))-D37</f>
         <v>134</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <v>41</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="2">
-        <f>IF(ISERROR(VLOOKUP(I37,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I37,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K37" s="2">
+        <f>IF(ISERROR(VLOOKUP(J37,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J37,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1251</v>
       </c>
-      <c r="K37" s="2">
-        <f>IF(ISERROR(VLOOKUP(I37,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I37,Dan!$C$1:$AF$71,29,FALSE)) - J37</f>
+      <c r="L37" s="2">
+        <f>IF(ISERROR(VLOOKUP(J37,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J37,Dan!$C$1:$AF$74,29,FALSE))-K37</f>
         <v>-351</v>
       </c>
-      <c r="L37" s="2">
-        <f>IF(ISERROR(VLOOKUP(I37,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I37,Dan!$C$1:$AF$71,30,FALSE)) - J37</f>
+      <c r="M37" s="2">
+        <f>IF(ISERROR(VLOOKUP(J37,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J37,Dan!$C$1:$AF$74,30,FALSE))-K37</f>
         <v>-251</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13">
       <c r="A38" s="2">
         <v>15</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2">
-        <f>IF(ISERROR(VLOOKUP(B38,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B38,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D38" s="2">
+        <f>IF(ISERROR(VLOOKUP(C38,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C38,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>96</v>
       </c>
-      <c r="D38" s="2">
-        <f>IF(ISERROR(VLOOKUP(B38,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B38,Dan!$C$1:$AF$71,29,FALSE)) - C38</f>
+      <c r="E38" s="2">
+        <f>IF(ISERROR(VLOOKUP(C38,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C38,Dan!$C$1:$AF$74,29,FALSE))-D38</f>
         <v>111</v>
       </c>
-      <c r="E38" s="2">
-        <f>IF(ISERROR(VLOOKUP(B38,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B38,Dan!$C$1:$AF$71,30,FALSE)) - C38</f>
+      <c r="F38" s="2">
+        <f>IF(ISERROR(VLOOKUP(C38,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C38,Dan!$C$1:$AF$74,30,FALSE))-D38</f>
         <v>134</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="J38" s="2">
-        <f>IF(ISERROR(VLOOKUP(I38,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I38,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K38" s="2">
+        <f>IF(ISERROR(VLOOKUP(J38,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J38,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1251</v>
       </c>
-      <c r="K38" s="2">
-        <f>IF(ISERROR(VLOOKUP(I38,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I38,Dan!$C$1:$AF$71,29,FALSE)) - J38</f>
+      <c r="L38" s="2">
+        <f>IF(ISERROR(VLOOKUP(J38,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J38,Dan!$C$1:$AF$74,29,FALSE))-K38</f>
         <v>-351</v>
       </c>
-      <c r="L38" s="2">
-        <f>IF(ISERROR(VLOOKUP(I38,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I38,Dan!$C$1:$AF$71,30,FALSE)) - J38</f>
+      <c r="M38" s="2">
+        <f>IF(ISERROR(VLOOKUP(J38,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J38,Dan!$C$1:$AF$74,30,FALSE))-K38</f>
         <v>-251</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13">
       <c r="A39" s="2">
         <v>16</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="2">
-        <f>IF(ISERROR(VLOOKUP(B39,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B39,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D39" s="2">
+        <f>IF(ISERROR(VLOOKUP(C39,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C39,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>96</v>
       </c>
-      <c r="D39" s="2">
-        <f>IF(ISERROR(VLOOKUP(B39,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B39,Dan!$C$1:$AF$71,29,FALSE)) - C39</f>
+      <c r="E39" s="2">
+        <f>IF(ISERROR(VLOOKUP(C39,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C39,Dan!$C$1:$AF$74,29,FALSE))-D39</f>
         <v>111</v>
       </c>
-      <c r="E39" s="2">
-        <f>IF(ISERROR(VLOOKUP(B39,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B39,Dan!$C$1:$AF$71,30,FALSE)) - C39</f>
+      <c r="F39" s="2">
+        <f>IF(ISERROR(VLOOKUP(C39,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C39,Dan!$C$1:$AF$74,30,FALSE))-D39</f>
         <v>134</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <v>43</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J39" s="2">
-        <f>IF(ISERROR(VLOOKUP(I39,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I39,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K39" s="2">
+        <f>IF(ISERROR(VLOOKUP(J39,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J39,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1251</v>
       </c>
-      <c r="K39" s="2">
-        <f>IF(ISERROR(VLOOKUP(I39,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I39,Dan!$C$1:$AF$71,29,FALSE)) - J39</f>
+      <c r="L39" s="2">
+        <f>IF(ISERROR(VLOOKUP(J39,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J39,Dan!$C$1:$AF$74,29,FALSE))-K39</f>
         <v>-351</v>
       </c>
-      <c r="L39" s="2">
-        <f>IF(ISERROR(VLOOKUP(I39,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I39,Dan!$C$1:$AF$71,30,FALSE)) - J39</f>
+      <c r="M39" s="2">
+        <f>IF(ISERROR(VLOOKUP(J39,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J39,Dan!$C$1:$AF$74,30,FALSE))-K39</f>
         <v>-251</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13">
       <c r="A40" s="2">
         <v>17</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="2">
-        <f>IF(ISERROR(VLOOKUP(B40,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B40,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D40" s="2">
+        <f>IF(ISERROR(VLOOKUP(C40,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C40,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>96</v>
       </c>
-      <c r="D40" s="2">
-        <f>IF(ISERROR(VLOOKUP(B40,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B40,Dan!$C$1:$AF$71,29,FALSE)) - C40</f>
+      <c r="E40" s="2">
+        <f>IF(ISERROR(VLOOKUP(C40,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C40,Dan!$C$1:$AF$74,29,FALSE))-D40</f>
         <v>111</v>
       </c>
-      <c r="E40" s="2">
-        <f>IF(ISERROR(VLOOKUP(B40,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B40,Dan!$C$1:$AF$71,30,FALSE)) - C40</f>
+      <c r="F40" s="2">
+        <f>IF(ISERROR(VLOOKUP(C40,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C40,Dan!$C$1:$AF$74,30,FALSE))-D40</f>
         <v>134</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <v>44</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J40" s="2">
-        <f>IF(ISERROR(VLOOKUP(I40,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I40,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K40" s="2">
+        <f>IF(ISERROR(VLOOKUP(J40,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J40,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1251</v>
       </c>
-      <c r="K40" s="2">
-        <f>IF(ISERROR(VLOOKUP(I40,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I40,Dan!$C$1:$AF$71,29,FALSE)) - J40</f>
+      <c r="L40" s="2">
+        <f>IF(ISERROR(VLOOKUP(J40,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J40,Dan!$C$1:$AF$74,29,FALSE))-K40</f>
         <v>-351</v>
       </c>
-      <c r="L40" s="2">
-        <f>IF(ISERROR(VLOOKUP(I40,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I40,Dan!$C$1:$AF$71,30,FALSE)) - J40</f>
+      <c r="M40" s="2">
+        <f>IF(ISERROR(VLOOKUP(J40,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J40,Dan!$C$1:$AF$74,30,FALSE))-K40</f>
         <v>-251</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13">
       <c r="A41" s="2">
         <v>31</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="2">
-        <f>IF(ISERROR(VLOOKUP(B41,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B41,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D41" s="2">
+        <f>IF(ISERROR(VLOOKUP(C41,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C41,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>684</v>
       </c>
-      <c r="D41" s="2">
-        <f>IF(ISERROR(VLOOKUP(B41,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B41,Dan!$C$1:$AF$71,29,FALSE)) - C41</f>
-        <v>36</v>
-      </c>
       <c r="E41" s="2">
-        <f>IF(ISERROR(VLOOKUP(B41,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B41,Dan!$C$1:$AF$71,30,FALSE)) - C41</f>
+        <f>IF(ISERROR(VLOOKUP(C41,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C41,Dan!$C$1:$AF$74,29,FALSE))-D41</f>
+        <v>36</v>
+      </c>
+      <c r="F41" s="2">
+        <f>IF(ISERROR(VLOOKUP(C41,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C41,Dan!$C$1:$AF$74,30,FALSE))-D41</f>
         <v>116</v>
       </c>
-      <c r="H41" s="2">
+      <c r="I41" s="2">
         <v>45</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J41" s="2">
-        <f>IF(ISERROR(VLOOKUP(I41,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I41,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K41" s="2">
+        <f>IF(ISERROR(VLOOKUP(J41,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J41,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1251</v>
       </c>
-      <c r="K41" s="2">
-        <f>IF(ISERROR(VLOOKUP(I41,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I41,Dan!$C$1:$AF$71,29,FALSE)) - J41</f>
+      <c r="L41" s="2">
+        <f>IF(ISERROR(VLOOKUP(J41,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J41,Dan!$C$1:$AF$74,29,FALSE))-K41</f>
         <v>-351</v>
       </c>
-      <c r="L41" s="2">
-        <f>IF(ISERROR(VLOOKUP(I41,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I41,Dan!$C$1:$AF$71,30,FALSE)) - J41</f>
+      <c r="M41" s="2">
+        <f>IF(ISERROR(VLOOKUP(J41,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J41,Dan!$C$1:$AF$74,30,FALSE))-K41</f>
         <v>-251</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13">
       <c r="A42" s="2">
         <v>32</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="2">
-        <f>IF(ISERROR(VLOOKUP(B42,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B42,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D42" s="2">
+        <f>IF(ISERROR(VLOOKUP(C42,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C42,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>684</v>
       </c>
-      <c r="D42" s="2">
-        <f>IF(ISERROR(VLOOKUP(B42,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B42,Dan!$C$1:$AF$71,29,FALSE)) - C42</f>
-        <v>36</v>
-      </c>
       <c r="E42" s="2">
-        <f>IF(ISERROR(VLOOKUP(B42,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B42,Dan!$C$1:$AF$71,30,FALSE)) - C42</f>
+        <f>IF(ISERROR(VLOOKUP(C42,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C42,Dan!$C$1:$AF$74,29,FALSE))-D42</f>
+        <v>36</v>
+      </c>
+      <c r="F42" s="2">
+        <f>IF(ISERROR(VLOOKUP(C42,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C42,Dan!$C$1:$AF$74,30,FALSE))-D42</f>
         <v>116</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="2">
         <v>46</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="J42" s="2">
-        <f>IF(ISERROR(VLOOKUP(I42,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I42,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K42" s="2">
+        <f>IF(ISERROR(VLOOKUP(J42,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J42,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>1359</v>
       </c>
-      <c r="K42" s="2">
-        <f>IF(ISERROR(VLOOKUP(I42,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I42,Dan!$C$1:$AF$71,29,FALSE)) - J42</f>
+      <c r="L42" s="2">
+        <f>IF(ISERROR(VLOOKUP(J42,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J42,Dan!$C$1:$AF$74,29,FALSE))-K42</f>
         <v>-369</v>
       </c>
-      <c r="L42" s="2">
-        <f>IF(ISERROR(VLOOKUP(I42,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I42,Dan!$C$1:$AF$71,30,FALSE)) - J42</f>
+      <c r="M42" s="2">
+        <f>IF(ISERROR(VLOOKUP(J42,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J42,Dan!$C$1:$AF$74,30,FALSE))-K42</f>
         <v>-259</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13">
       <c r="A43" s="2">
         <v>20</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="2">
-        <f>IF(ISERROR(VLOOKUP(B43,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B43,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D43" s="2">
+        <f>IF(ISERROR(VLOOKUP(C43,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C43,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>168</v>
       </c>
-      <c r="D43" s="2">
-        <f>IF(ISERROR(VLOOKUP(B43,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B43,Dan!$C$1:$AF$71,29,FALSE)) - C43</f>
+      <c r="E43" s="2">
+        <f>IF(ISERROR(VLOOKUP(C43,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C43,Dan!$C$1:$AF$74,29,FALSE))-D43</f>
         <v>84</v>
       </c>
-      <c r="E43" s="2">
-        <f>IF(ISERROR(VLOOKUP(B43,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B43,Dan!$C$1:$AF$71,30,FALSE)) - C43</f>
+      <c r="F43" s="2">
+        <f>IF(ISERROR(VLOOKUP(C43,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C43,Dan!$C$1:$AF$74,30,FALSE))-D43</f>
         <v>112</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>37</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J43" s="2">
-        <f>IF(ISERROR(VLOOKUP(I43,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I43,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K43" s="2">
+        <f>IF(ISERROR(VLOOKUP(J43,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J43,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2835</v>
       </c>
-      <c r="K43" s="2">
-        <f>IF(ISERROR(VLOOKUP(I43,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I43,Dan!$C$1:$AF$71,29,FALSE)) - J43</f>
+      <c r="L43" s="2">
+        <f>IF(ISERROR(VLOOKUP(J43,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J43,Dan!$C$1:$AF$74,29,FALSE))-K43</f>
         <v>-585</v>
       </c>
-      <c r="L43" s="2">
-        <f>IF(ISERROR(VLOOKUP(I43,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I43,Dan!$C$1:$AF$71,30,FALSE)) - J43</f>
+      <c r="M43" s="2">
+        <f>IF(ISERROR(VLOOKUP(J43,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J43,Dan!$C$1:$AF$74,30,FALSE))-K43</f>
         <v>-335</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13">
       <c r="A44" s="2">
         <v>10</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="2">
-        <f>IF(ISERROR(VLOOKUP(B44,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B44,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D44" s="2">
+        <f>IF(ISERROR(VLOOKUP(C44,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C44,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>96</v>
       </c>
-      <c r="D44" s="2">
-        <f>IF(ISERROR(VLOOKUP(B44,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B44,Dan!$C$1:$AF$71,29,FALSE)) - C44</f>
+      <c r="E44" s="2">
+        <f>IF(ISERROR(VLOOKUP(C44,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C44,Dan!$C$1:$AF$74,29,FALSE))-D44</f>
         <v>89.4</v>
       </c>
-      <c r="E44" s="2">
-        <f>IF(ISERROR(VLOOKUP(B44,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B44,Dan!$C$1:$AF$71,30,FALSE)) - C44</f>
+      <c r="F44" s="2">
+        <f>IF(ISERROR(VLOOKUP(C44,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C44,Dan!$C$1:$AF$74,30,FALSE))-D44</f>
         <v>110</v>
       </c>
-      <c r="H44" s="2">
+      <c r="I44" s="2">
         <v>53</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="J44" s="2">
-        <f>IF(ISERROR(VLOOKUP(I44,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I44,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K44" s="2">
+        <f>IF(ISERROR(VLOOKUP(J44,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J44,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>3645</v>
       </c>
-      <c r="K44" s="2">
-        <f>IF(ISERROR(VLOOKUP(I44,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I44,Dan!$C$1:$AF$71,29,FALSE)) - J44</f>
+      <c r="L44" s="2">
+        <f>IF(ISERROR(VLOOKUP(J44,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J44,Dan!$C$1:$AF$74,29,FALSE))-K44</f>
         <v>-720</v>
       </c>
-      <c r="L44" s="2">
-        <f>IF(ISERROR(VLOOKUP(I44,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I44,Dan!$C$1:$AF$71,30,FALSE)) - J44</f>
+      <c r="M44" s="2">
+        <f>IF(ISERROR(VLOOKUP(J44,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J44,Dan!$C$1:$AF$74,30,FALSE))-K44</f>
         <v>-395</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13">
       <c r="A45" s="2">
         <v>8</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="2">
-        <f>IF(ISERROR(VLOOKUP(B45,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B45,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D45" s="2">
+        <f>IF(ISERROR(VLOOKUP(C45,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C45,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>78</v>
       </c>
-      <c r="D45" s="2">
-        <f>IF(ISERROR(VLOOKUP(B45,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B45,Dan!$C$1:$AF$71,29,FALSE)) - C45</f>
+      <c r="E45" s="2">
+        <f>IF(ISERROR(VLOOKUP(C45,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C45,Dan!$C$1:$AF$74,29,FALSE))-D45</f>
         <v>89.4</v>
       </c>
-      <c r="E45" s="2">
-        <f>IF(ISERROR(VLOOKUP(B45,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B45,Dan!$C$1:$AF$71,30,FALSE)) - C45</f>
+      <c r="F45" s="2">
+        <f>IF(ISERROR(VLOOKUP(C45,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C45,Dan!$C$1:$AF$74,30,FALSE))-D45</f>
         <v>108</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="2">
         <v>54</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="J45" s="2">
-        <f>IF(ISERROR(VLOOKUP(I45,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I45,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K45" s="2">
+        <f>IF(ISERROR(VLOOKUP(J45,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J45,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>3645</v>
       </c>
-      <c r="K45" s="2">
-        <f>IF(ISERROR(VLOOKUP(I45,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I45,Dan!$C$1:$AF$71,29,FALSE)) - J45</f>
+      <c r="L45" s="2">
+        <f>IF(ISERROR(VLOOKUP(J45,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J45,Dan!$C$1:$AF$74,29,FALSE))-K45</f>
         <v>-720</v>
       </c>
-      <c r="L45" s="2">
-        <f>IF(ISERROR(VLOOKUP(I45,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I45,Dan!$C$1:$AF$71,30,FALSE)) - J45</f>
+      <c r="M45" s="2">
+        <f>IF(ISERROR(VLOOKUP(J45,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J45,Dan!$C$1:$AF$74,30,FALSE))-K45</f>
         <v>-395</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13">
       <c r="A46" s="2">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="2">
-        <f>IF(ISERROR(VLOOKUP(B46,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B46,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D46" s="2">
+        <f>IF(ISERROR(VLOOKUP(C46,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C46,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1350</v>
       </c>
-      <c r="D46" s="2">
-        <f>IF(ISERROR(VLOOKUP(B46,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B46,Dan!$C$1:$AF$71,29,FALSE)) - C46</f>
+      <c r="E46" s="2">
+        <f>IF(ISERROR(VLOOKUP(C46,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C46,Dan!$C$1:$AF$74,29,FALSE))-D46</f>
         <v>-45</v>
       </c>
-      <c r="E46" s="2">
-        <f>IF(ISERROR(VLOOKUP(B46,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B46,Dan!$C$1:$AF$71,30,FALSE)) - C46</f>
+      <c r="F46" s="2">
+        <f>IF(ISERROR(VLOOKUP(C46,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C46,Dan!$C$1:$AF$74,30,FALSE))-D46</f>
         <v>100</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="2">
         <v>55</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J46" s="2">
-        <f>IF(ISERROR(VLOOKUP(I46,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I46,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K46" s="2">
+        <f>IF(ISERROR(VLOOKUP(J46,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J46,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>3645</v>
       </c>
-      <c r="K46" s="2">
-        <f>IF(ISERROR(VLOOKUP(I46,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I46,Dan!$C$1:$AF$71,29,FALSE)) - J46</f>
+      <c r="L46" s="2">
+        <f>IF(ISERROR(VLOOKUP(J46,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J46,Dan!$C$1:$AF$74,29,FALSE))-K46</f>
         <v>-720</v>
       </c>
-      <c r="L46" s="2">
-        <f>IF(ISERROR(VLOOKUP(I46,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I46,Dan!$C$1:$AF$71,30,FALSE)) - J46</f>
+      <c r="M46" s="2">
+        <f>IF(ISERROR(VLOOKUP(J46,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J46,Dan!$C$1:$AF$74,30,FALSE))-K46</f>
         <v>-395</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13">
       <c r="A47" s="2">
         <v>48</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C47" s="2">
-        <f>IF(ISERROR(VLOOKUP(B47,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B47,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D47" s="2">
+        <f>IF(ISERROR(VLOOKUP(C47,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C47,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1350</v>
       </c>
-      <c r="D47" s="2">
-        <f>IF(ISERROR(VLOOKUP(B47,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B47,Dan!$C$1:$AF$71,29,FALSE)) - C47</f>
+      <c r="E47" s="2">
+        <f>IF(ISERROR(VLOOKUP(C47,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C47,Dan!$C$1:$AF$74,29,FALSE))-D47</f>
         <v>-45</v>
       </c>
-      <c r="E47" s="2">
-        <f>IF(ISERROR(VLOOKUP(B47,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B47,Dan!$C$1:$AF$71,30,FALSE)) - C47</f>
+      <c r="F47" s="2">
+        <f>IF(ISERROR(VLOOKUP(C47,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C47,Dan!$C$1:$AF$74,30,FALSE))-D47</f>
         <v>100</v>
       </c>
-      <c r="H47" s="2">
+      <c r="I47" s="2">
         <v>47</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J47" s="2">
-        <f>IF(ISERROR(VLOOKUP(I47,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I47,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K47" s="2">
+        <f>IF(ISERROR(VLOOKUP(J47,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J47,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2025</v>
       </c>
-      <c r="K47" s="2">
-        <f>IF(ISERROR(VLOOKUP(I47,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I47,Dan!$C$1:$AF$71,29,FALSE)) - J47</f>
+      <c r="L47" s="2">
+        <f>IF(ISERROR(VLOOKUP(J47,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J47,Dan!$C$1:$AF$74,29,FALSE))-K47</f>
         <v>-720</v>
       </c>
-      <c r="L47" s="2">
-        <f>IF(ISERROR(VLOOKUP(I47,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I47,Dan!$C$1:$AF$71,30,FALSE)) - J47</f>
+      <c r="M47" s="2">
+        <f>IF(ISERROR(VLOOKUP(J47,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J47,Dan!$C$1:$AF$74,30,FALSE))-K47</f>
         <v>-575</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13">
       <c r="A48" s="2">
         <v>49</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="2">
-        <f>IF(ISERROR(VLOOKUP(B48,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B48,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D48" s="2">
+        <f>IF(ISERROR(VLOOKUP(C48,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C48,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1350</v>
       </c>
-      <c r="D48" s="2">
-        <f>IF(ISERROR(VLOOKUP(B48,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B48,Dan!$C$1:$AF$71,29,FALSE)) - C48</f>
+      <c r="E48" s="2">
+        <f>IF(ISERROR(VLOOKUP(C48,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C48,Dan!$C$1:$AF$74,29,FALSE))-D48</f>
         <v>-45</v>
       </c>
-      <c r="E48" s="2">
-        <f>IF(ISERROR(VLOOKUP(B48,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B48,Dan!$C$1:$AF$71,30,FALSE)) - C48</f>
+      <c r="F48" s="2">
+        <f>IF(ISERROR(VLOOKUP(C48,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C48,Dan!$C$1:$AF$74,30,FALSE))-D48</f>
         <v>100</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="2">
         <v>48</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="J48" s="2">
-        <f>IF(ISERROR(VLOOKUP(I48,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I48,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K48" s="2">
+        <f>IF(ISERROR(VLOOKUP(J48,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J48,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2025</v>
       </c>
-      <c r="K48" s="2">
-        <f>IF(ISERROR(VLOOKUP(I48,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I48,Dan!$C$1:$AF$71,29,FALSE)) - J48</f>
+      <c r="L48" s="2">
+        <f>IF(ISERROR(VLOOKUP(J48,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J48,Dan!$C$1:$AF$74,29,FALSE))-K48</f>
         <v>-720</v>
       </c>
-      <c r="L48" s="2">
-        <f>IF(ISERROR(VLOOKUP(I48,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I48,Dan!$C$1:$AF$71,30,FALSE)) - J48</f>
+      <c r="M48" s="2">
+        <f>IF(ISERROR(VLOOKUP(J48,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J48,Dan!$C$1:$AF$74,30,FALSE))-K48</f>
         <v>-575</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13">
       <c r="A49" s="2">
         <v>50</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="2">
-        <f>IF(ISERROR(VLOOKUP(B49,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B49,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D49" s="2">
+        <f>IF(ISERROR(VLOOKUP(C49,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C49,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1350</v>
       </c>
-      <c r="D49" s="2">
-        <f>IF(ISERROR(VLOOKUP(B49,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B49,Dan!$C$1:$AF$71,29,FALSE)) - C49</f>
+      <c r="E49" s="2">
+        <f>IF(ISERROR(VLOOKUP(C49,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C49,Dan!$C$1:$AF$74,29,FALSE))-D49</f>
         <v>-45</v>
       </c>
-      <c r="E49" s="2">
-        <f>IF(ISERROR(VLOOKUP(B49,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B49,Dan!$C$1:$AF$71,30,FALSE)) - C49</f>
+      <c r="F49" s="2">
+        <f>IF(ISERROR(VLOOKUP(C49,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C49,Dan!$C$1:$AF$74,30,FALSE))-D49</f>
         <v>100</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="2">
         <v>49</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J49" s="2">
-        <f>IF(ISERROR(VLOOKUP(I49,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I49,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K49" s="2">
+        <f>IF(ISERROR(VLOOKUP(J49,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J49,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2025</v>
       </c>
-      <c r="K49" s="2">
-        <f>IF(ISERROR(VLOOKUP(I49,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I49,Dan!$C$1:$AF$71,29,FALSE)) - J49</f>
+      <c r="L49" s="2">
+        <f>IF(ISERROR(VLOOKUP(J49,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J49,Dan!$C$1:$AF$74,29,FALSE))-K49</f>
         <v>-720</v>
       </c>
-      <c r="L49" s="2">
-        <f>IF(ISERROR(VLOOKUP(I49,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I49,Dan!$C$1:$AF$71,30,FALSE)) - J49</f>
+      <c r="M49" s="2">
+        <f>IF(ISERROR(VLOOKUP(J49,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J49,Dan!$C$1:$AF$74,30,FALSE))-K49</f>
         <v>-575</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13">
       <c r="A50" s="2">
         <v>51</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="2">
-        <f>IF(ISERROR(VLOOKUP(B50,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B50,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D50" s="2">
+        <f>IF(ISERROR(VLOOKUP(C50,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C50,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1350</v>
       </c>
-      <c r="D50" s="2">
-        <f>IF(ISERROR(VLOOKUP(B50,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B50,Dan!$C$1:$AF$71,29,FALSE)) - C50</f>
+      <c r="E50" s="2">
+        <f>IF(ISERROR(VLOOKUP(C50,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C50,Dan!$C$1:$AF$74,29,FALSE))-D50</f>
         <v>-45</v>
       </c>
-      <c r="E50" s="2">
-        <f>IF(ISERROR(VLOOKUP(B50,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B50,Dan!$C$1:$AF$71,30,FALSE)) - C50</f>
+      <c r="F50" s="2">
+        <f>IF(ISERROR(VLOOKUP(C50,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C50,Dan!$C$1:$AF$74,30,FALSE))-D50</f>
         <v>100</v>
       </c>
-      <c r="H50" s="2">
+      <c r="I50" s="2">
         <v>50</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J50" s="2">
-        <f>IF(ISERROR(VLOOKUP(I50,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I50,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K50" s="2">
+        <f>IF(ISERROR(VLOOKUP(J50,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J50,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2025</v>
       </c>
-      <c r="K50" s="2">
-        <f>IF(ISERROR(VLOOKUP(I50,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I50,Dan!$C$1:$AF$71,29,FALSE)) - J50</f>
+      <c r="L50" s="2">
+        <f>IF(ISERROR(VLOOKUP(J50,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J50,Dan!$C$1:$AF$74,29,FALSE))-K50</f>
         <v>-720</v>
       </c>
-      <c r="L50" s="2">
-        <f>IF(ISERROR(VLOOKUP(I50,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I50,Dan!$C$1:$AF$71,30,FALSE)) - J50</f>
+      <c r="M50" s="2">
+        <f>IF(ISERROR(VLOOKUP(J50,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J50,Dan!$C$1:$AF$74,30,FALSE))-K50</f>
         <v>-575</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13">
       <c r="A51" s="2">
         <v>2</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="2">
-        <f>IF(ISERROR(VLOOKUP(B51,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B51,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D51" s="2">
+        <f>IF(ISERROR(VLOOKUP(C51,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C51,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>126</v>
       </c>
-      <c r="D51" s="2">
-        <f>IF(ISERROR(VLOOKUP(B51,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B51,Dan!$C$1:$AF$71,29,FALSE)) - C51</f>
-        <v>75.599999999999994</v>
-      </c>
       <c r="E51" s="2">
-        <f>IF(ISERROR(VLOOKUP(B51,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B51,Dan!$C$1:$AF$71,30,FALSE)) - C51</f>
+        <f>IF(ISERROR(VLOOKUP(C51,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C51,Dan!$C$1:$AF$74,29,FALSE))-D51</f>
+        <v>75.6</v>
+      </c>
+      <c r="F51" s="2">
+        <f>IF(ISERROR(VLOOKUP(C51,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C51,Dan!$C$1:$AF$74,30,FALSE))-D51</f>
         <v>98</v>
       </c>
-      <c r="H51" s="2">
+      <c r="I51" s="2">
         <v>51</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J51" s="2">
-        <f>IF(ISERROR(VLOOKUP(I51,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I51,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K51" s="2">
+        <f>IF(ISERROR(VLOOKUP(J51,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J51,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2025</v>
       </c>
-      <c r="K51" s="2">
-        <f>IF(ISERROR(VLOOKUP(I51,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I51,Dan!$C$1:$AF$71,29,FALSE)) - J51</f>
+      <c r="L51" s="2">
+        <f>IF(ISERROR(VLOOKUP(J51,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J51,Dan!$C$1:$AF$74,29,FALSE))-K51</f>
         <v>-720</v>
       </c>
-      <c r="L51" s="2">
-        <f>IF(ISERROR(VLOOKUP(I51,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I51,Dan!$C$1:$AF$71,30,FALSE)) - J51</f>
+      <c r="M51" s="2">
+        <f>IF(ISERROR(VLOOKUP(J51,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J51,Dan!$C$1:$AF$74,30,FALSE))-K51</f>
         <v>-575</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13">
       <c r="A52" s="2">
         <v>7</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="2">
-        <f>IF(ISERROR(VLOOKUP(B52,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B52,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D52" s="2">
+        <f>IF(ISERROR(VLOOKUP(C52,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C52,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>54</v>
       </c>
-      <c r="D52" s="2">
-        <f>IF(ISERROR(VLOOKUP(B52,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B52,Dan!$C$1:$AF$71,29,FALSE)) - C52</f>
+      <c r="E52" s="2">
+        <f>IF(ISERROR(VLOOKUP(C52,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C52,Dan!$C$1:$AF$74,29,FALSE))-D52</f>
         <v>73.8</v>
       </c>
-      <c r="E52" s="2">
-        <f>IF(ISERROR(VLOOKUP(B52,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B52,Dan!$C$1:$AF$71,30,FALSE)) - C52</f>
+      <c r="F52" s="2">
+        <f>IF(ISERROR(VLOOKUP(C52,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C52,Dan!$C$1:$AF$74,30,FALSE))-D52</f>
         <v>88</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>59</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J52" s="2">
-        <f>IF(ISERROR(VLOOKUP(I52,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I52,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="J52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K52" s="2">
+        <f>IF(ISERROR(VLOOKUP(J52,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J52,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>11070</v>
       </c>
-      <c r="K52" s="2">
-        <f>IF(ISERROR(VLOOKUP(I52,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I52,Dan!$C$1:$AF$71,29,FALSE)) - J52</f>
+      <c r="L52" s="2">
+        <f>IF(ISERROR(VLOOKUP(J52,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J52,Dan!$C$1:$AF$74,29,FALSE))-K52</f>
         <v>-2070</v>
       </c>
-      <c r="L52" s="2">
-        <f>IF(ISERROR(VLOOKUP(I52,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I52,Dan!$C$1:$AF$71,30,FALSE)) - J52</f>
+      <c r="M52" s="2">
+        <f>IF(ISERROR(VLOOKUP(J52,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J52,Dan!$C$1:$AF$74,30,FALSE))-K52</f>
         <v>-1070</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13">
       <c r="A53" s="2">
         <v>12</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C53" s="2">
-        <f>IF(ISERROR(VLOOKUP(B53,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B53,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D53" s="2">
+        <f>IF(ISERROR(VLOOKUP(C53,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C53,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>54</v>
       </c>
-      <c r="D53" s="2">
-        <f>IF(ISERROR(VLOOKUP(B53,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B53,Dan!$C$1:$AF$71,29,FALSE)) - C53</f>
+      <c r="E53" s="2">
+        <f>IF(ISERROR(VLOOKUP(C53,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C53,Dan!$C$1:$AF$74,29,FALSE))-D53</f>
         <v>73.8</v>
       </c>
-      <c r="E53" s="2">
-        <f>IF(ISERROR(VLOOKUP(B53,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B53,Dan!$C$1:$AF$71,30,FALSE)) - C53</f>
+      <c r="F53" s="2">
+        <f>IF(ISERROR(VLOOKUP(C53,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C53,Dan!$C$1:$AF$74,30,FALSE))-D53</f>
         <v>88</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="2">
         <v>40</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J53" s="2">
-        <f>IF(ISERROR(VLOOKUP(I53,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I53,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K53" s="2">
+        <f>IF(ISERROR(VLOOKUP(J53,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J53,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>2430</v>
       </c>
-      <c r="K53" s="2">
-        <f>IF(ISERROR(VLOOKUP(I53,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I53,Dan!$C$1:$AF$71,29,FALSE)) - J53</f>
+      <c r="L53" s="2">
+        <f>IF(ISERROR(VLOOKUP(J53,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J53,Dan!$C$1:$AF$74,29,FALSE))-K53</f>
         <v>-1305</v>
       </c>
-      <c r="L53" s="2">
-        <f>IF(ISERROR(VLOOKUP(I53,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I53,Dan!$C$1:$AF$71,30,FALSE)) - J53</f>
+      <c r="M53" s="2">
+        <f>IF(ISERROR(VLOOKUP(J53,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J53,Dan!$C$1:$AF$74,30,FALSE))-K53</f>
         <v>-1180</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13">
       <c r="A54" s="2">
         <v>19</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="2">
-        <f>IF(ISERROR(VLOOKUP(B54,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B54,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D54" s="2">
+        <f>IF(ISERROR(VLOOKUP(C54,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C54,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>438</v>
       </c>
-      <c r="D54" s="2">
-        <f>IF(ISERROR(VLOOKUP(B54,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B54,Dan!$C$1:$AF$71,29,FALSE)) - C54</f>
-        <v>33.600000000000023</v>
-      </c>
       <c r="E54" s="2">
-        <f>IF(ISERROR(VLOOKUP(B54,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B54,Dan!$C$1:$AF$71,30,FALSE)) - C54</f>
+        <f>IF(ISERROR(VLOOKUP(C54,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C54,Dan!$C$1:$AF$74,29,FALSE))-D54</f>
+        <v>33.6</v>
+      </c>
+      <c r="F54" s="2">
+        <f>IF(ISERROR(VLOOKUP(C54,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C54,Dan!$C$1:$AF$74,30,FALSE))-D54</f>
         <v>86</v>
       </c>
-      <c r="H54" s="2">
+      <c r="I54" s="2">
         <v>35</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="J54" s="2">
-        <f>IF(ISERROR(VLOOKUP(I54,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I54,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K54" s="2">
+        <f>IF(ISERROR(VLOOKUP(J54,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J54,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>7560</v>
       </c>
-      <c r="K54" s="2">
-        <f>IF(ISERROR(VLOOKUP(I54,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I54,Dan!$C$1:$AF$71,29,FALSE)) - J54</f>
+      <c r="L54" s="2">
+        <f>IF(ISERROR(VLOOKUP(J54,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J54,Dan!$C$1:$AF$74,29,FALSE))-K54</f>
         <v>-1935</v>
       </c>
-      <c r="L54" s="2">
-        <f>IF(ISERROR(VLOOKUP(I54,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I54,Dan!$C$1:$AF$71,30,FALSE)) - J54</f>
+      <c r="M54" s="2">
+        <f>IF(ISERROR(VLOOKUP(J54,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J54,Dan!$C$1:$AF$74,30,FALSE))-K54</f>
         <v>-1310</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13">
       <c r="A55" s="2">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="2">
-        <f>IF(ISERROR(VLOOKUP(B55,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B55,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D55" s="2">
+        <f>IF(ISERROR(VLOOKUP(C55,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C55,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>90</v>
       </c>
-      <c r="D55" s="2">
-        <f>IF(ISERROR(VLOOKUP(B55,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B55,Dan!$C$1:$AF$71,29,FALSE)) - C55</f>
-        <v>61.200000000000017</v>
-      </c>
       <c r="E55" s="2">
-        <f>IF(ISERROR(VLOOKUP(B55,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B55,Dan!$C$1:$AF$71,30,FALSE)) - C55</f>
+        <f>IF(ISERROR(VLOOKUP(C55,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C55,Dan!$C$1:$AF$74,29,FALSE))-D55</f>
+        <v>61.2</v>
+      </c>
+      <c r="F55" s="2">
+        <f>IF(ISERROR(VLOOKUP(C55,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C55,Dan!$C$1:$AF$74,30,FALSE))-D55</f>
         <v>78</v>
       </c>
-      <c r="H55" s="2">
+      <c r="I55" s="2">
         <v>34</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="J55" s="2">
-        <f>IF(ISERROR(VLOOKUP(I55,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I55,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K55" s="2">
+        <f>IF(ISERROR(VLOOKUP(J55,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J55,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>5940</v>
       </c>
-      <c r="K55" s="2">
-        <f>IF(ISERROR(VLOOKUP(I55,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I55,Dan!$C$1:$AF$71,29,FALSE)) - J55</f>
+      <c r="L55" s="2">
+        <f>IF(ISERROR(VLOOKUP(J55,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J55,Dan!$C$1:$AF$74,29,FALSE))-K55</f>
         <v>-1980</v>
       </c>
-      <c r="L55" s="2">
-        <f>IF(ISERROR(VLOOKUP(I55,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I55,Dan!$C$1:$AF$71,30,FALSE)) - J55</f>
+      <c r="M55" s="2">
+        <f>IF(ISERROR(VLOOKUP(J55,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J55,Dan!$C$1:$AF$74,30,FALSE))-K55</f>
         <v>-1540</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13">
       <c r="A56" s="2">
         <v>9</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="2">
-        <f>IF(ISERROR(VLOOKUP(B56,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B56,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D56" s="2">
+        <f>IF(ISERROR(VLOOKUP(C56,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C56,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>72</v>
       </c>
-      <c r="D56" s="2">
-        <f>IF(ISERROR(VLOOKUP(B56,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B56,Dan!$C$1:$AF$71,29,FALSE)) - C56</f>
+      <c r="E56" s="2">
+        <f>IF(ISERROR(VLOOKUP(C56,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C56,Dan!$C$1:$AF$74,29,FALSE))-D56</f>
         <v>63</v>
       </c>
-      <c r="E56" s="2">
-        <f>IF(ISERROR(VLOOKUP(B56,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B56,Dan!$C$1:$AF$71,30,FALSE)) - C56</f>
+      <c r="F56" s="2">
+        <f>IF(ISERROR(VLOOKUP(C56,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C56,Dan!$C$1:$AF$74,30,FALSE))-D56</f>
         <v>78</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>30</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J56" s="2">
-        <f>IF(ISERROR(VLOOKUP(I56,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I56,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K56" s="2">
+        <f>IF(ISERROR(VLOOKUP(J56,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J56,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>7560</v>
       </c>
-      <c r="K56" s="2">
-        <f>IF(ISERROR(VLOOKUP(I56,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I56,Dan!$C$1:$AF$71,29,FALSE)) - J56</f>
+      <c r="L56" s="2">
+        <f>IF(ISERROR(VLOOKUP(J56,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J56,Dan!$C$1:$AF$74,29,FALSE))-K56</f>
         <v>-2214</v>
       </c>
-      <c r="L56" s="2">
-        <f>IF(ISERROR(VLOOKUP(I56,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I56,Dan!$C$1:$AF$71,30,FALSE)) - J56</f>
+      <c r="M56" s="2">
+        <f>IF(ISERROR(VLOOKUP(J56,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J56,Dan!$C$1:$AF$74,30,FALSE))-K56</f>
         <v>-1620</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13">
       <c r="A57" s="2">
         <v>6</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="2">
-        <f>IF(ISERROR(VLOOKUP(B57,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B57,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D57" s="2">
+        <f>IF(ISERROR(VLOOKUP(C57,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C57,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>72</v>
       </c>
-      <c r="D57" s="2">
-        <f>IF(ISERROR(VLOOKUP(B57,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B57,Dan!$C$1:$AF$71,29,FALSE)) - C57</f>
+      <c r="E57" s="2">
+        <f>IF(ISERROR(VLOOKUP(C57,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C57,Dan!$C$1:$AF$74,29,FALSE))-D57</f>
         <v>55.8</v>
       </c>
-      <c r="E57" s="2">
-        <f>IF(ISERROR(VLOOKUP(B57,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B57,Dan!$C$1:$AF$71,30,FALSE)) - C57</f>
+      <c r="F57" s="2">
+        <f>IF(ISERROR(VLOOKUP(C57,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C57,Dan!$C$1:$AF$74,30,FALSE))-D57</f>
         <v>70</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="2">
         <v>58</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J57" s="2">
-        <f>IF(ISERROR(VLOOKUP(I57,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I57,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="J57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K57" s="2">
+        <f>IF(ISERROR(VLOOKUP(J57,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J57,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>6750</v>
       </c>
-      <c r="K57" s="2">
-        <f>IF(ISERROR(VLOOKUP(I57,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I57,Dan!$C$1:$AF$71,29,FALSE)) - J57</f>
+      <c r="L57" s="2">
+        <f>IF(ISERROR(VLOOKUP(J57,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J57,Dan!$C$1:$AF$74,29,FALSE))-K57</f>
         <v>-2250</v>
       </c>
-      <c r="L57" s="2">
-        <f>IF(ISERROR(VLOOKUP(I57,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I57,Dan!$C$1:$AF$71,30,FALSE)) - J57</f>
+      <c r="M57" s="2">
+        <f>IF(ISERROR(VLOOKUP(J57,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J57,Dan!$C$1:$AF$74,30,FALSE))-K57</f>
         <v>-1750</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13">
       <c r="A58" s="2">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="2">
-        <f>IF(ISERROR(VLOOKUP(B58,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B58,Dan!$C$1:$AF$71,26,FALSE))</f>
-        <v>36</v>
-      </c>
       <c r="D58" s="2">
-        <f>IF(ISERROR(VLOOKUP(B58,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B58,Dan!$C$1:$AF$71,29,FALSE)) - C58</f>
-        <v>59.400000000000006</v>
+        <f>IF(ISERROR(VLOOKUP(C58,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C58,Dan!$C$1:$AF$74,26,FALSE))</f>
+        <v>36</v>
       </c>
       <c r="E58" s="2">
-        <f>IF(ISERROR(VLOOKUP(B58,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B58,Dan!$C$1:$AF$71,30,FALSE)) - C58</f>
+        <f>IF(ISERROR(VLOOKUP(C58,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C58,Dan!$C$1:$AF$74,29,FALSE))-D58</f>
+        <v>59.4</v>
+      </c>
+      <c r="F58" s="2">
+        <f>IF(ISERROR(VLOOKUP(C58,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C58,Dan!$C$1:$AF$74,30,FALSE))-D58</f>
         <v>70</v>
       </c>
-      <c r="H58" s="2">
+      <c r="I58" s="2">
         <v>38</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J58" s="2">
-        <f>IF(ISERROR(VLOOKUP(I58,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I58,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K58" s="2">
+        <f>IF(ISERROR(VLOOKUP(J58,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J58,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>6786</v>
       </c>
-      <c r="K58" s="2">
-        <f>IF(ISERROR(VLOOKUP(I58,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I58,Dan!$C$1:$AF$71,29,FALSE)) - J58</f>
+      <c r="L58" s="2">
+        <f>IF(ISERROR(VLOOKUP(J58,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J58,Dan!$C$1:$AF$74,29,FALSE))-K58</f>
         <v>-2286</v>
       </c>
-      <c r="L58" s="2">
-        <f>IF(ISERROR(VLOOKUP(I58,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I58,Dan!$C$1:$AF$71,30,FALSE)) - J58</f>
+      <c r="M58" s="2">
+        <f>IF(ISERROR(VLOOKUP(J58,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J58,Dan!$C$1:$AF$74,30,FALSE))-K58</f>
         <v>-1786</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13">
       <c r="A59" s="2">
         <v>5</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C59" s="2">
-        <f>IF(ISERROR(VLOOKUP(B59,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B59,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D59" s="2">
+        <f>IF(ISERROR(VLOOKUP(C59,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C59,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>54</v>
       </c>
-      <c r="D59" s="2">
-        <f>IF(ISERROR(VLOOKUP(B59,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B59,Dan!$C$1:$AF$71,29,FALSE)) - C59</f>
+      <c r="E59" s="2">
+        <f>IF(ISERROR(VLOOKUP(C59,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C59,Dan!$C$1:$AF$74,29,FALSE))-D59</f>
         <v>52.2</v>
       </c>
-      <c r="E59" s="2">
-        <f>IF(ISERROR(VLOOKUP(B59,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B59,Dan!$C$1:$AF$71,30,FALSE)) - C59</f>
+      <c r="F59" s="2">
+        <f>IF(ISERROR(VLOOKUP(C59,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C59,Dan!$C$1:$AF$74,30,FALSE))-D59</f>
         <v>64</v>
       </c>
-      <c r="H59" s="2">
-        <v>36</v>
-      </c>
-      <c r="I59" s="2" t="s">
+      <c r="I59" s="2">
+        <v>36</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J59" s="2">
-        <f>IF(ISERROR(VLOOKUP(I59,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I59,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K59" s="2">
+        <f>IF(ISERROR(VLOOKUP(J59,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J59,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>7155</v>
       </c>
-      <c r="K59" s="2">
-        <f>IF(ISERROR(VLOOKUP(I59,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I59,Dan!$C$1:$AF$71,29,FALSE)) - J59</f>
+      <c r="L59" s="2">
+        <f>IF(ISERROR(VLOOKUP(J59,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J59,Dan!$C$1:$AF$74,29,FALSE))-K59</f>
         <v>-2655</v>
       </c>
-      <c r="L59" s="2">
-        <f>IF(ISERROR(VLOOKUP(I59,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I59,Dan!$C$1:$AF$71,30,FALSE)) - J59</f>
+      <c r="M59" s="2">
+        <f>IF(ISERROR(VLOOKUP(J59,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J59,Dan!$C$1:$AF$74,30,FALSE))-K59</f>
         <v>-2155</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13">
       <c r="A60" s="2">
         <v>1</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="2">
-        <f>IF(ISERROR(VLOOKUP(B60,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B60,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D60" s="2">
+        <f>IF(ISERROR(VLOOKUP(C60,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C60,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>12</v>
       </c>
-      <c r="D60" s="2">
-        <f>IF(ISERROR(VLOOKUP(B60,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B60,Dan!$C$1:$AF$71,29,FALSE)) - C60</f>
+      <c r="E60" s="2">
+        <f>IF(ISERROR(VLOOKUP(C60,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C60,Dan!$C$1:$AF$74,29,FALSE))-D60</f>
         <v>49.2</v>
       </c>
-      <c r="E60" s="2">
-        <f>IF(ISERROR(VLOOKUP(B60,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B60,Dan!$C$1:$AF$71,30,FALSE)) - C60</f>
+      <c r="F60" s="2">
+        <f>IF(ISERROR(VLOOKUP(C60,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C60,Dan!$C$1:$AF$74,30,FALSE))-D60</f>
         <v>56</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>60</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="J60" s="2">
-        <f>IF(ISERROR(VLOOKUP(I60,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I60,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="J60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K60" s="2">
+        <f>IF(ISERROR(VLOOKUP(J60,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J60,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>30240</v>
       </c>
-      <c r="K60" s="2">
-        <f>IF(ISERROR(VLOOKUP(I60,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I60,Dan!$C$1:$AF$71,29,FALSE)) - J60</f>
+      <c r="L60" s="2">
+        <f>IF(ISERROR(VLOOKUP(J60,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J60,Dan!$C$1:$AF$74,29,FALSE))-K60</f>
         <v>-6615</v>
       </c>
-      <c r="L60" s="2">
-        <f>IF(ISERROR(VLOOKUP(I60,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I60,Dan!$C$1:$AF$71,30,FALSE)) - J60</f>
+      <c r="M60" s="2">
+        <f>IF(ISERROR(VLOOKUP(J60,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J60,Dan!$C$1:$AF$74,30,FALSE))-K60</f>
         <v>-3990</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13">
       <c r="A61" s="2">
         <v>40</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="2">
-        <f>IF(ISERROR(VLOOKUP(B61,Dan!$C$1:$AF$71,26,FALSE)),0,VLOOKUP(B61,Dan!$C$1:$AF$71,26,FALSE))</f>
+      <c r="D61" s="2">
+        <f>IF(ISERROR(VLOOKUP(C61,Dan!$C$1:$AF$74,26,FALSE)),0,VLOOKUP(C61,Dan!$C$1:$AF$74,26,FALSE))</f>
         <v>1620</v>
       </c>
-      <c r="D61" s="2">
-        <f>IF(ISERROR(VLOOKUP(B61,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(B61,Dan!$C$1:$AF$71,29,FALSE)) - C61</f>
+      <c r="E61" s="2">
+        <f>IF(ISERROR(VLOOKUP(C61,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(C61,Dan!$C$1:$AF$74,29,FALSE))-D61</f>
         <v>-495</v>
       </c>
-      <c r="E61" s="2">
-        <f>IF(ISERROR(VLOOKUP(B61,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(B61,Dan!$C$1:$AF$71,30,FALSE)) - C61</f>
+      <c r="F61" s="2">
+        <f>IF(ISERROR(VLOOKUP(C61,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(C61,Dan!$C$1:$AF$74,30,FALSE))-D61</f>
         <v>-370</v>
       </c>
-      <c r="H61" s="2">
+      <c r="I61" s="2">
         <v>57</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="J61" s="2">
-        <f>IF(ISERROR(VLOOKUP(I61,Dan!$C$1:$AF$71,27,FALSE)),0,VLOOKUP(I61,Dan!$C$1:$AF$71,27,FALSE))</f>
+      <c r="K61" s="2">
+        <f>IF(ISERROR(VLOOKUP(J61,Dan!$C$1:$AF$74,27,FALSE)),0,VLOOKUP(J61,Dan!$C$1:$AF$74,27,FALSE))</f>
         <v>25920</v>
       </c>
-      <c r="K61" s="2">
-        <f>IF(ISERROR(VLOOKUP(I61,Dan!$C$1:$AF$71,29,FALSE)),0,VLOOKUP(I61,Dan!$C$1:$AF$71,29,FALSE)) - J61</f>
+      <c r="L61" s="2">
+        <f>IF(ISERROR(VLOOKUP(J61,Dan!$C$1:$AF$74,29,FALSE)),0,VLOOKUP(J61,Dan!$C$1:$AF$74,29,FALSE))-K61</f>
         <v>-8100</v>
       </c>
-      <c r="L61" s="2">
-        <f>IF(ISERROR(VLOOKUP(I61,Dan!$C$1:$AF$71,30,FALSE)),0,VLOOKUP(I61,Dan!$C$1:$AF$71,30,FALSE)) - J61</f>
+      <c r="M61" s="2">
+        <f>IF(ISERROR(VLOOKUP(J61,Dan!$C$1:$AF$74,30,FALSE)),0,VLOOKUP(J61,Dan!$C$1:$AF$74,30,FALSE))-K61</f>
         <v>-6120</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="F62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="F63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="F64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="H65" s="2"/>
+      <c r="F65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="H66" s="2"/>
+      <c r="F66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="H67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="F68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="H69" s="2"/>
+      <c r="F69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="F72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="H73" s="2"/>
+      <c r="F73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="H74" s="2"/>
+      <c r="F74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="F75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="F76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="F77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="H78" s="2"/>
+      <c r="F78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:M79">
-    <sortCondition descending="1" ref="L2:L79"/>
+  <sortState ref="I2:N79">
+    <sortCondition ref="M2:M79" descending="1"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>